--- a/public/files/bulk-upload-lettings-specification-2023-24.xlsx
+++ b/public/files/bulk-upload-lettings-specification-2023-24.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="547">
   <si>
     <t>Field number</t>
   </si>
@@ -125,7 +125,7 @@
     <t>Is this letting a renewal?</t>
   </si>
   <si>
-    <t>This is a letting to the same tenant in the same property</t>
+    <t>A renewal is a letting to the same tenant in the same property. If the property was previously being used as temporary accommodation, then answer 'no'.</t>
   </si>
   <si>
     <t>1 = Yes</t>
@@ -259,7 +259,7 @@
     <t>The UPRN is the Unique Property Reference Number. It's created by the Ordnance Survey so it's a unique number system used across all housing providers, all sectors (i.e. not just social housing) and all across the UK.</t>
   </si>
   <si>
-    <t>Yes, if letting is supported housing (if field 4 = 2) or if the property's postcode is not empty (if fields 23 and 24 contain full and valid entries)</t>
+    <t>Yes, if letting is supported housing (if field 4 = 2) or if the property's address is known (if fields 19, 21, 23 and 24 contain full and valid entries)</t>
   </si>
   <si>
     <t>Address line 1</t>
@@ -268,7 +268,7 @@
     <t xml:space="preserve">The first line of the address is for the street address  </t>
   </si>
   <si>
-    <t>Yes, if letting is supported housing (if field 4 = 2) or if property's UPRN and local authority are known (if fields 18 and 25 are not empty)</t>
+    <t>Yes, if letting is supported housing (if field 4 = 2) or if property's UPRN is known (if field 18 is not empty)</t>
   </si>
   <si>
     <t>Address line 2</t>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>Alphanumeric, 2 - 4 characters</t>
+  </si>
+  <si>
+    <t>Yes, if letting is supported housing (if field 4 = 2) or if property's UPRN or local authority is known (if field 18 or 25 is not empty)</t>
   </si>
   <si>
     <t>Part 2 of the property's postcode</t>
@@ -4116,7 +4119,7 @@
         <v>93</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -4144,13 +4147,13 @@
         <v>24.0</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C53" s="46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D53" s="47" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="6"/>
@@ -4179,16 +4182,16 @@
         <v>25.0</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C54" s="48" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -4216,16 +4219,16 @@
         <v>26.0</v>
       </c>
       <c r="B55" s="49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="50" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -4252,7 +4255,7 @@
       <c r="A56" s="18"/>
       <c r="B56" s="51"/>
       <c r="C56" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D56" s="51"/>
       <c r="E56" s="18"/>
@@ -4281,7 +4284,7 @@
       <c r="A57" s="18"/>
       <c r="B57" s="51"/>
       <c r="C57" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D57" s="51"/>
       <c r="E57" s="18"/>
@@ -4310,7 +4313,7 @@
       <c r="A58" s="18"/>
       <c r="B58" s="51"/>
       <c r="C58" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D58" s="51"/>
       <c r="E58" s="18"/>
@@ -4339,7 +4342,7 @@
       <c r="A59" s="18"/>
       <c r="B59" s="51"/>
       <c r="C59" s="52" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D59" s="51"/>
       <c r="E59" s="18"/>
@@ -4368,7 +4371,7 @@
       <c r="A60" s="18"/>
       <c r="B60" s="51"/>
       <c r="C60" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D60" s="51"/>
       <c r="E60" s="18"/>
@@ -4397,7 +4400,7 @@
       <c r="A61" s="18"/>
       <c r="B61" s="51"/>
       <c r="C61" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D61" s="51"/>
       <c r="E61" s="18"/>
@@ -4426,7 +4429,7 @@
       <c r="A62" s="21"/>
       <c r="B62" s="53"/>
       <c r="C62" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D62" s="53"/>
       <c r="E62" s="21"/>
@@ -4456,16 +4459,16 @@
         <v>27.0</v>
       </c>
       <c r="B63" s="54" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C63" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D63" s="55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
@@ -4491,7 +4494,7 @@
     <row r="64">
       <c r="A64" s="18"/>
       <c r="C64" s="20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
@@ -4519,7 +4522,7 @@
     <row r="65">
       <c r="A65" s="18"/>
       <c r="C65" s="20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
@@ -4547,7 +4550,7 @@
     <row r="66">
       <c r="A66" s="18"/>
       <c r="C66" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
@@ -4575,7 +4578,7 @@
     <row r="67">
       <c r="A67" s="18"/>
       <c r="C67" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
@@ -4603,7 +4606,7 @@
     <row r="68">
       <c r="A68" s="18"/>
       <c r="C68" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
@@ -4631,7 +4634,7 @@
     <row r="69">
       <c r="A69" s="18"/>
       <c r="C69" s="20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
@@ -4659,7 +4662,7 @@
     <row r="70">
       <c r="A70" s="18"/>
       <c r="C70" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
@@ -4687,7 +4690,7 @@
     <row r="71">
       <c r="A71" s="18"/>
       <c r="C71" s="56" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
@@ -4715,7 +4718,7 @@
     <row r="72">
       <c r="A72" s="18"/>
       <c r="C72" s="32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
@@ -4743,7 +4746,7 @@
     <row r="73">
       <c r="A73" s="18"/>
       <c r="C73" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
@@ -4771,7 +4774,7 @@
     <row r="74">
       <c r="A74" s="18"/>
       <c r="C74" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
@@ -4799,7 +4802,7 @@
     <row r="75">
       <c r="A75" s="18"/>
       <c r="C75" s="56" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
@@ -4827,7 +4830,7 @@
     <row r="76">
       <c r="A76" s="18"/>
       <c r="C76" s="32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
@@ -4855,7 +4858,7 @@
     <row r="77">
       <c r="A77" s="18"/>
       <c r="C77" s="32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
@@ -4884,7 +4887,7 @@
       <c r="A78" s="21"/>
       <c r="B78" s="37"/>
       <c r="C78" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
@@ -4914,16 +4917,16 @@
         <v>28.0</v>
       </c>
       <c r="B79" s="54" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C79" s="57" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
@@ -4950,7 +4953,7 @@
       <c r="A80" s="21"/>
       <c r="B80" s="37"/>
       <c r="C80" s="22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="21"/>
@@ -4980,16 +4983,16 @@
         <v>29.0</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
@@ -5016,7 +5019,7 @@
       <c r="A82" s="18"/>
       <c r="B82" s="18"/>
       <c r="C82" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D82" s="18"/>
       <c r="E82" s="18"/>
@@ -5045,7 +5048,7 @@
       <c r="A83" s="18"/>
       <c r="B83" s="18"/>
       <c r="C83" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D83" s="18"/>
       <c r="E83" s="18"/>
@@ -5074,7 +5077,7 @@
       <c r="A84" s="18"/>
       <c r="B84" s="18"/>
       <c r="C84" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D84" s="18"/>
       <c r="E84" s="18"/>
@@ -5103,7 +5106,7 @@
       <c r="A85" s="18"/>
       <c r="B85" s="18"/>
       <c r="C85" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D85" s="18"/>
       <c r="E85" s="18"/>
@@ -5132,7 +5135,7 @@
       <c r="A86" s="18"/>
       <c r="B86" s="18"/>
       <c r="C86" s="54" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="18"/>
@@ -5161,7 +5164,7 @@
       <c r="A87" s="18"/>
       <c r="B87" s="18"/>
       <c r="C87" s="54" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D87" s="18"/>
       <c r="E87" s="18"/>
@@ -5190,7 +5193,7 @@
       <c r="A88" s="18"/>
       <c r="B88" s="18"/>
       <c r="C88" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D88" s="18"/>
       <c r="E88" s="18"/>
@@ -5219,7 +5222,7 @@
       <c r="A89" s="21"/>
       <c r="B89" s="21"/>
       <c r="C89" s="54" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D89" s="21"/>
       <c r="E89" s="18"/>
@@ -5249,7 +5252,7 @@
         <v>30.0</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C90" s="17" t="s">
         <v>19</v>
@@ -5283,7 +5286,7 @@
       <c r="A91" s="18"/>
       <c r="B91" s="18"/>
       <c r="C91" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D91" s="51"/>
       <c r="E91" s="18"/>
@@ -5312,7 +5315,7 @@
       <c r="A92" s="21"/>
       <c r="B92" s="21"/>
       <c r="C92" s="22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D92" s="53"/>
       <c r="E92" s="18"/>
@@ -5342,7 +5345,7 @@
         <v>31.0</v>
       </c>
       <c r="B93" s="58" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C93" s="17" t="s">
         <v>19</v>
@@ -5433,13 +5436,13 @@
         <v>32.0</v>
       </c>
       <c r="B96" s="38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D96" s="60" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E96" s="21"/>
       <c r="F96" s="6"/>
@@ -5468,16 +5471,16 @@
         <v>33.0</v>
       </c>
       <c r="B97" s="54" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D97" s="55" t="s">
         <v>42</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
@@ -5569,7 +5572,7 @@
         <v>44</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E100" s="21"/>
       <c r="F100" s="6"/>
@@ -5598,10 +5601,10 @@
         <v>36.0</v>
       </c>
       <c r="B101" s="54" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D101" s="55" t="s">
         <v>42</v>
@@ -5699,7 +5702,7 @@
         <v>44</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E104" s="21"/>
       <c r="F104" s="6"/>
@@ -5725,7 +5728,7 @@
     </row>
     <row r="105" ht="21.75" customHeight="1">
       <c r="A105" s="63" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -5757,13 +5760,13 @@
         <v>39.0</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C106" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D106" s="55" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E106" s="15" t="s">
         <v>9</v>
@@ -5851,7 +5854,7 @@
       <c r="A109" s="21"/>
       <c r="B109" s="13"/>
       <c r="C109" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D109" s="13"/>
       <c r="E109" s="18"/>
@@ -5881,10 +5884,10 @@
         <v>40.0</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D110" s="23" t="s">
         <v>18</v>
@@ -6003,13 +6006,13 @@
         <v>41.0</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E114" s="12" t="s">
         <v>9</v>
@@ -6068,7 +6071,7 @@
       <c r="A116" s="18"/>
       <c r="B116" s="18"/>
       <c r="C116" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D116" s="18"/>
       <c r="E116" s="18"/>
@@ -6097,7 +6100,7 @@
       <c r="A117" s="18"/>
       <c r="B117" s="18"/>
       <c r="C117" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D117" s="18"/>
       <c r="E117" s="18"/>
@@ -6126,7 +6129,7 @@
       <c r="A118" s="18"/>
       <c r="B118" s="18"/>
       <c r="C118" s="64" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D118" s="18"/>
       <c r="E118" s="18"/>
@@ -6155,7 +6158,7 @@
       <c r="A119" s="18"/>
       <c r="B119" s="18"/>
       <c r="C119" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D119" s="18"/>
       <c r="E119" s="18"/>
@@ -6184,7 +6187,7 @@
       <c r="A120" s="18"/>
       <c r="B120" s="18"/>
       <c r="C120" s="64" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D120" s="18"/>
       <c r="E120" s="18"/>
@@ -6213,7 +6216,7 @@
       <c r="A121" s="21"/>
       <c r="B121" s="21"/>
       <c r="C121" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D121" s="21"/>
       <c r="E121" s="21"/>
@@ -6243,7 +6246,7 @@
         <v>42.0</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>56</v>
@@ -6252,7 +6255,7 @@
         <v>57</v>
       </c>
       <c r="E122" s="35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
@@ -6280,16 +6283,16 @@
         <v>43.0</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C123" s="54" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D123" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E123" s="65" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
@@ -6316,7 +6319,7 @@
       <c r="A124" s="18"/>
       <c r="B124" s="19"/>
       <c r="D124" s="66" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E124" s="19"/>
       <c r="F124" s="6"/>
@@ -6345,7 +6348,7 @@
       <c r="B125" s="13"/>
       <c r="C125" s="37"/>
       <c r="D125" s="67" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E125" s="13"/>
       <c r="F125" s="6"/>
@@ -6374,13 +6377,13 @@
         <v>44.0</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C126" s="68" t="s">
         <v>19</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E126" s="11" t="s">
         <v>74</v>
@@ -6410,7 +6413,7 @@
       <c r="A127" s="18"/>
       <c r="B127" s="19"/>
       <c r="C127" s="20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D127" s="19"/>
       <c r="E127" s="19"/>
@@ -6439,7 +6442,7 @@
       <c r="A128" s="18"/>
       <c r="B128" s="19"/>
       <c r="C128" s="20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D128" s="19"/>
       <c r="E128" s="19"/>
@@ -6468,7 +6471,7 @@
       <c r="A129" s="18"/>
       <c r="B129" s="19"/>
       <c r="C129" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D129" s="19"/>
       <c r="E129" s="19"/>
@@ -6497,7 +6500,7 @@
       <c r="A130" s="18"/>
       <c r="B130" s="19"/>
       <c r="C130" s="20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D130" s="19"/>
       <c r="E130" s="19"/>
@@ -6526,7 +6529,7 @@
       <c r="A131" s="21"/>
       <c r="B131" s="13"/>
       <c r="C131" s="69" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D131" s="13"/>
       <c r="E131" s="13"/>
@@ -6553,7 +6556,7 @@
     </row>
     <row r="132" ht="23.25" customHeight="1">
       <c r="A132" s="70" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B132" s="37"/>
       <c r="C132" s="37"/>
@@ -6585,13 +6588,13 @@
         <v>45.0</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D133" s="16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E133" s="11" t="s">
         <v>9</v>
@@ -6680,13 +6683,13 @@
         <v>46.0</v>
       </c>
       <c r="B136" s="54" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E136" s="11" t="s">
         <v>9</v>
@@ -6716,7 +6719,7 @@
       <c r="A137" s="21"/>
       <c r="B137" s="37"/>
       <c r="C137" s="20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D137" s="13"/>
       <c r="E137" s="19"/>
@@ -6746,13 +6749,13 @@
         <v>47.0</v>
       </c>
       <c r="B138" s="71" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E138" s="19"/>
       <c r="F138" s="72"/>
@@ -6809,7 +6812,7 @@
       <c r="A140" s="18"/>
       <c r="B140" s="51"/>
       <c r="C140" s="20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D140" s="19"/>
       <c r="E140" s="19"/>
@@ -6838,7 +6841,7 @@
       <c r="A141" s="18"/>
       <c r="B141" s="51"/>
       <c r="C141" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D141" s="19"/>
       <c r="E141" s="19"/>
@@ -6867,7 +6870,7 @@
       <c r="A142" s="18"/>
       <c r="B142" s="51"/>
       <c r="C142" s="20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D142" s="19"/>
       <c r="E142" s="19"/>
@@ -6896,7 +6899,7 @@
       <c r="A143" s="18"/>
       <c r="B143" s="53"/>
       <c r="C143" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D143" s="13"/>
       <c r="E143" s="13"/>
@@ -6926,13 +6929,13 @@
         <v>48.0</v>
       </c>
       <c r="B144" s="54" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E144" s="73" t="s">
         <v>9</v>
@@ -6989,7 +6992,7 @@
     <row r="146">
       <c r="A146" s="18"/>
       <c r="C146" s="20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D146" s="19"/>
       <c r="E146" s="19"/>
@@ -7017,7 +7020,7 @@
     <row r="147">
       <c r="A147" s="18"/>
       <c r="C147" s="56" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D147" s="19"/>
       <c r="E147" s="19"/>
@@ -7045,7 +7048,7 @@
     <row r="148">
       <c r="A148" s="18"/>
       <c r="C148" s="20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D148" s="19"/>
       <c r="E148" s="19"/>
@@ -7073,7 +7076,7 @@
     <row r="149">
       <c r="A149" s="18"/>
       <c r="C149" s="56" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D149" s="19"/>
       <c r="E149" s="19"/>
@@ -7101,7 +7104,7 @@
     <row r="150">
       <c r="A150" s="18"/>
       <c r="C150" s="56" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D150" s="19"/>
       <c r="E150" s="19"/>
@@ -7129,7 +7132,7 @@
     <row r="151">
       <c r="A151" s="18"/>
       <c r="C151" s="56" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D151" s="19"/>
       <c r="E151" s="19"/>
@@ -7157,7 +7160,7 @@
     <row r="152">
       <c r="A152" s="18"/>
       <c r="C152" s="56" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D152" s="19"/>
       <c r="E152" s="19"/>
@@ -7185,7 +7188,7 @@
     <row r="153">
       <c r="A153" s="18"/>
       <c r="C153" s="56" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D153" s="19"/>
       <c r="E153" s="19"/>
@@ -7213,7 +7216,7 @@
     <row r="154">
       <c r="A154" s="18"/>
       <c r="C154" s="56" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D154" s="19"/>
       <c r="E154" s="19"/>
@@ -7241,7 +7244,7 @@
     <row r="155">
       <c r="A155" s="18"/>
       <c r="C155" s="20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D155" s="19"/>
       <c r="E155" s="19"/>
@@ -7269,7 +7272,7 @@
     <row r="156">
       <c r="A156" s="18"/>
       <c r="C156" s="56" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D156" s="19"/>
       <c r="E156" s="19"/>
@@ -7297,7 +7300,7 @@
     <row r="157">
       <c r="A157" s="18"/>
       <c r="C157" s="20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D157" s="19"/>
       <c r="E157" s="19"/>
@@ -7325,7 +7328,7 @@
     <row r="158">
       <c r="A158" s="18"/>
       <c r="C158" s="56" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D158" s="19"/>
       <c r="E158" s="19"/>
@@ -7353,7 +7356,7 @@
     <row r="159">
       <c r="A159" s="18"/>
       <c r="C159" s="20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D159" s="19"/>
       <c r="E159" s="19"/>
@@ -7381,7 +7384,7 @@
     <row r="160">
       <c r="A160" s="18"/>
       <c r="C160" s="56" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D160" s="19"/>
       <c r="E160" s="19"/>
@@ -7409,7 +7412,7 @@
     <row r="161">
       <c r="A161" s="18"/>
       <c r="C161" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D161" s="19"/>
       <c r="E161" s="19"/>
@@ -7437,7 +7440,7 @@
     <row r="162">
       <c r="A162" s="18"/>
       <c r="C162" s="56" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D162" s="19"/>
       <c r="E162" s="19"/>
@@ -7465,7 +7468,7 @@
     <row r="163">
       <c r="A163" s="18"/>
       <c r="C163" s="56" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D163" s="19"/>
       <c r="E163" s="19"/>
@@ -7494,7 +7497,7 @@
       <c r="A164" s="21"/>
       <c r="B164" s="37"/>
       <c r="C164" s="74" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D164" s="13"/>
       <c r="E164" s="19"/>
@@ -7524,13 +7527,13 @@
         <v>49.0</v>
       </c>
       <c r="B165" s="17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D165" s="23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E165" s="15" t="s">
         <v>9</v>
@@ -7589,7 +7592,7 @@
       <c r="A167" s="18"/>
       <c r="B167" s="18"/>
       <c r="C167" s="14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D167" s="18"/>
       <c r="E167" s="18"/>
@@ -7618,7 +7621,7 @@
       <c r="A168" s="18"/>
       <c r="B168" s="18"/>
       <c r="C168" s="14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D168" s="18"/>
       <c r="E168" s="18"/>
@@ -7647,7 +7650,7 @@
       <c r="A169" s="18"/>
       <c r="B169" s="18"/>
       <c r="C169" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D169" s="18"/>
       <c r="E169" s="18"/>
@@ -7676,7 +7679,7 @@
       <c r="A170" s="18"/>
       <c r="B170" s="18"/>
       <c r="C170" s="54" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D170" s="18"/>
       <c r="E170" s="18"/>
@@ -7705,7 +7708,7 @@
       <c r="A171" s="18"/>
       <c r="B171" s="18"/>
       <c r="C171" s="54" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D171" s="18"/>
       <c r="E171" s="18"/>
@@ -7714,7 +7717,7 @@
       <c r="A172" s="18"/>
       <c r="B172" s="18"/>
       <c r="C172" s="14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D172" s="18"/>
       <c r="E172" s="18"/>
@@ -7723,7 +7726,7 @@
       <c r="A173" s="21"/>
       <c r="B173" s="21"/>
       <c r="C173" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D173" s="21"/>
       <c r="E173" s="21"/>
@@ -7733,13 +7736,13 @@
         <v>50.0</v>
       </c>
       <c r="B174" s="20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D174" s="26" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E174" s="75" t="s">
         <v>9</v>
@@ -7758,7 +7761,7 @@
       <c r="A176" s="18"/>
       <c r="B176" s="18"/>
       <c r="C176" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D176" s="18"/>
       <c r="E176" s="18"/>
@@ -7767,7 +7770,7 @@
       <c r="A177" s="18"/>
       <c r="B177" s="18"/>
       <c r="C177" s="76" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D177" s="18"/>
       <c r="E177" s="18"/>
@@ -7776,7 +7779,7 @@
       <c r="A178" s="18"/>
       <c r="B178" s="18"/>
       <c r="C178" s="14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D178" s="18"/>
       <c r="E178" s="18"/>
@@ -7785,7 +7788,7 @@
       <c r="A179" s="18"/>
       <c r="B179" s="18"/>
       <c r="C179" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D179" s="18"/>
       <c r="E179" s="18"/>
@@ -7794,7 +7797,7 @@
       <c r="A180" s="18"/>
       <c r="B180" s="18"/>
       <c r="C180" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D180" s="18"/>
       <c r="E180" s="18"/>
@@ -7803,7 +7806,7 @@
       <c r="A181" s="18"/>
       <c r="B181" s="18"/>
       <c r="C181" s="14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D181" s="18"/>
       <c r="E181" s="18"/>
@@ -7812,7 +7815,7 @@
       <c r="A182" s="18"/>
       <c r="B182" s="18"/>
       <c r="C182" s="64" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D182" s="18"/>
       <c r="E182" s="18"/>
@@ -7821,7 +7824,7 @@
       <c r="A183" s="18"/>
       <c r="B183" s="18"/>
       <c r="C183" s="14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D183" s="18"/>
       <c r="E183" s="18"/>
@@ -7830,7 +7833,7 @@
       <c r="A184" s="18"/>
       <c r="B184" s="18"/>
       <c r="C184" s="27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D184" s="18"/>
       <c r="E184" s="18"/>
@@ -7839,7 +7842,7 @@
       <c r="A185" s="18"/>
       <c r="B185" s="18"/>
       <c r="C185" s="27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D185" s="18"/>
       <c r="E185" s="18"/>
@@ -7848,7 +7851,7 @@
       <c r="A186" s="21"/>
       <c r="B186" s="21"/>
       <c r="C186" s="28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D186" s="21"/>
       <c r="E186" s="21"/>
@@ -7858,16 +7861,16 @@
         <v>51.0</v>
       </c>
       <c r="B187" s="20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D187" s="30" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E187" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="188">
@@ -7883,7 +7886,7 @@
       <c r="A189" s="18"/>
       <c r="B189" s="18"/>
       <c r="C189" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D189" s="18"/>
       <c r="E189" s="18"/>
@@ -7892,7 +7895,7 @@
       <c r="A190" s="18"/>
       <c r="B190" s="18"/>
       <c r="C190" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D190" s="18"/>
       <c r="E190" s="18"/>
@@ -7901,7 +7904,7 @@
       <c r="A191" s="18"/>
       <c r="B191" s="18"/>
       <c r="C191" s="14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D191" s="18"/>
       <c r="E191" s="18"/>
@@ -7910,7 +7913,7 @@
       <c r="A192" s="21"/>
       <c r="B192" s="21"/>
       <c r="C192" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D192" s="21"/>
       <c r="E192" s="21"/>
@@ -7920,16 +7923,16 @@
         <v>52.0</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D193" s="23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E193" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="194">
@@ -7937,7 +7940,7 @@
       <c r="B194" s="19"/>
       <c r="C194" s="19"/>
       <c r="D194" s="77" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E194" s="19"/>
     </row>
@@ -7946,7 +7949,7 @@
       <c r="B195" s="13"/>
       <c r="C195" s="13"/>
       <c r="D195" s="78" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E195" s="13"/>
     </row>
@@ -7955,23 +7958,23 @@
         <v>53.0</v>
       </c>
       <c r="B196" s="20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C196" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D196" s="30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="18"/>
       <c r="B197" s="18"/>
       <c r="C197" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D197" s="18"/>
       <c r="E197" s="18"/>
@@ -7980,7 +7983,7 @@
       <c r="A198" s="18"/>
       <c r="B198" s="18"/>
       <c r="C198" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D198" s="18"/>
       <c r="E198" s="18"/>
@@ -7989,7 +7992,7 @@
       <c r="A199" s="18"/>
       <c r="B199" s="18"/>
       <c r="C199" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D199" s="18"/>
       <c r="E199" s="18"/>
@@ -7998,7 +8001,7 @@
       <c r="A200" s="21"/>
       <c r="B200" s="21"/>
       <c r="C200" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D200" s="21"/>
       <c r="E200" s="21"/>
@@ -8008,23 +8011,23 @@
         <v>54.0</v>
       </c>
       <c r="B201" s="20" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C201" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D201" s="23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E201" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="18"/>
       <c r="B202" s="18"/>
       <c r="C202" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D202" s="18"/>
       <c r="E202" s="18"/>
@@ -8033,7 +8036,7 @@
       <c r="A203" s="18"/>
       <c r="B203" s="18"/>
       <c r="C203" s="76" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D203" s="18"/>
       <c r="E203" s="18"/>
@@ -8042,7 +8045,7 @@
       <c r="A204" s="18"/>
       <c r="B204" s="18"/>
       <c r="C204" s="14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D204" s="18"/>
       <c r="E204" s="18"/>
@@ -8051,7 +8054,7 @@
       <c r="A205" s="18"/>
       <c r="B205" s="18"/>
       <c r="C205" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D205" s="18"/>
       <c r="E205" s="18"/>
@@ -8060,7 +8063,7 @@
       <c r="A206" s="18"/>
       <c r="B206" s="18"/>
       <c r="C206" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D206" s="18"/>
       <c r="E206" s="18"/>
@@ -8069,7 +8072,7 @@
       <c r="A207" s="18"/>
       <c r="B207" s="18"/>
       <c r="C207" s="14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D207" s="18"/>
       <c r="E207" s="18"/>
@@ -8078,7 +8081,7 @@
       <c r="A208" s="18"/>
       <c r="B208" s="18"/>
       <c r="C208" s="64" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D208" s="18"/>
       <c r="E208" s="18"/>
@@ -8087,7 +8090,7 @@
       <c r="A209" s="18"/>
       <c r="B209" s="18"/>
       <c r="C209" s="14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D209" s="18"/>
       <c r="E209" s="18"/>
@@ -8096,7 +8099,7 @@
       <c r="A210" s="18"/>
       <c r="B210" s="18"/>
       <c r="C210" s="27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D210" s="18"/>
       <c r="E210" s="18"/>
@@ -8105,7 +8108,7 @@
       <c r="A211" s="18"/>
       <c r="B211" s="18"/>
       <c r="C211" s="27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D211" s="18"/>
       <c r="E211" s="18"/>
@@ -8114,7 +8117,7 @@
       <c r="A212" s="21"/>
       <c r="B212" s="21"/>
       <c r="C212" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D212" s="21"/>
       <c r="E212" s="21"/>
@@ -8124,16 +8127,16 @@
         <v>55.0</v>
       </c>
       <c r="B213" s="20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D213" s="30" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E213" s="12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="214">
@@ -8149,7 +8152,7 @@
       <c r="A215" s="18"/>
       <c r="B215" s="18"/>
       <c r="C215" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D215" s="18"/>
       <c r="E215" s="18"/>
@@ -8158,7 +8161,7 @@
       <c r="A216" s="18"/>
       <c r="B216" s="18"/>
       <c r="C216" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D216" s="18"/>
       <c r="E216" s="18"/>
@@ -8167,7 +8170,7 @@
       <c r="A217" s="18"/>
       <c r="B217" s="18"/>
       <c r="C217" s="14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D217" s="18"/>
       <c r="E217" s="18"/>
@@ -8176,7 +8179,7 @@
       <c r="A218" s="21"/>
       <c r="B218" s="21"/>
       <c r="C218" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D218" s="21"/>
       <c r="E218" s="21"/>
@@ -8186,16 +8189,16 @@
         <v>56.0</v>
       </c>
       <c r="B219" s="14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C219" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D219" s="23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E219" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="220">
@@ -8203,7 +8206,7 @@
       <c r="B220" s="19"/>
       <c r="C220" s="19"/>
       <c r="D220" s="32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E220" s="19"/>
     </row>
@@ -8212,7 +8215,7 @@
       <c r="B221" s="13"/>
       <c r="C221" s="13"/>
       <c r="D221" s="33" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E221" s="13"/>
     </row>
@@ -8221,23 +8224,23 @@
         <v>57.0</v>
       </c>
       <c r="B222" s="20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C222" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D222" s="30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E222" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="18"/>
       <c r="B223" s="18"/>
       <c r="C223" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D223" s="18"/>
       <c r="E223" s="18"/>
@@ -8246,7 +8249,7 @@
       <c r="A224" s="18"/>
       <c r="B224" s="18"/>
       <c r="C224" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D224" s="18"/>
       <c r="E224" s="18"/>
@@ -8255,7 +8258,7 @@
       <c r="A225" s="18"/>
       <c r="B225" s="18"/>
       <c r="C225" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D225" s="18"/>
       <c r="E225" s="18"/>
@@ -8264,7 +8267,7 @@
       <c r="A226" s="21"/>
       <c r="B226" s="21"/>
       <c r="C226" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D226" s="21"/>
       <c r="E226" s="21"/>
@@ -8274,23 +8277,23 @@
         <v>58.0</v>
       </c>
       <c r="B227" s="20" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C227" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D227" s="23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E227" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="18"/>
       <c r="B228" s="18"/>
       <c r="C228" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D228" s="18"/>
       <c r="E228" s="18"/>
@@ -8299,7 +8302,7 @@
       <c r="A229" s="18"/>
       <c r="B229" s="18"/>
       <c r="C229" s="76" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D229" s="18"/>
       <c r="E229" s="18"/>
@@ -8308,7 +8311,7 @@
       <c r="A230" s="18"/>
       <c r="B230" s="18"/>
       <c r="C230" s="14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D230" s="18"/>
       <c r="E230" s="18"/>
@@ -8317,7 +8320,7 @@
       <c r="A231" s="18"/>
       <c r="B231" s="18"/>
       <c r="C231" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D231" s="18"/>
       <c r="E231" s="18"/>
@@ -8326,7 +8329,7 @@
       <c r="A232" s="18"/>
       <c r="B232" s="18"/>
       <c r="C232" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D232" s="18"/>
       <c r="E232" s="18"/>
@@ -8335,7 +8338,7 @@
       <c r="A233" s="18"/>
       <c r="B233" s="18"/>
       <c r="C233" s="14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D233" s="18"/>
       <c r="E233" s="18"/>
@@ -8344,7 +8347,7 @@
       <c r="A234" s="18"/>
       <c r="B234" s="18"/>
       <c r="C234" s="64" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D234" s="18"/>
       <c r="E234" s="18"/>
@@ -8353,7 +8356,7 @@
       <c r="A235" s="18"/>
       <c r="B235" s="18"/>
       <c r="C235" s="14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D235" s="18"/>
       <c r="E235" s="18"/>
@@ -8362,7 +8365,7 @@
       <c r="A236" s="18"/>
       <c r="B236" s="18"/>
       <c r="C236" s="27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D236" s="18"/>
       <c r="E236" s="18"/>
@@ -8371,7 +8374,7 @@
       <c r="A237" s="18"/>
       <c r="B237" s="18"/>
       <c r="C237" s="27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D237" s="18"/>
       <c r="E237" s="18"/>
@@ -8380,7 +8383,7 @@
       <c r="A238" s="21"/>
       <c r="B238" s="21"/>
       <c r="C238" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D238" s="21"/>
       <c r="E238" s="21"/>
@@ -8390,16 +8393,16 @@
         <v>59.0</v>
       </c>
       <c r="B239" s="20" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C239" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D239" s="30" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E239" s="12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="240">
@@ -8415,7 +8418,7 @@
       <c r="A241" s="18"/>
       <c r="B241" s="18"/>
       <c r="C241" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D241" s="18"/>
       <c r="E241" s="18"/>
@@ -8424,7 +8427,7 @@
       <c r="A242" s="18"/>
       <c r="B242" s="18"/>
       <c r="C242" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D242" s="18"/>
       <c r="E242" s="18"/>
@@ -8433,7 +8436,7 @@
       <c r="A243" s="18"/>
       <c r="B243" s="18"/>
       <c r="C243" s="14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D243" s="18"/>
       <c r="E243" s="18"/>
@@ -8442,7 +8445,7 @@
       <c r="A244" s="21"/>
       <c r="B244" s="21"/>
       <c r="C244" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D244" s="21"/>
       <c r="E244" s="21"/>
@@ -8452,16 +8455,16 @@
         <v>60.0</v>
       </c>
       <c r="B245" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C245" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D245" s="23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E245" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="246">
@@ -8469,7 +8472,7 @@
       <c r="B246" s="19"/>
       <c r="C246" s="19"/>
       <c r="D246" s="32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E246" s="19"/>
     </row>
@@ -8478,7 +8481,7 @@
       <c r="B247" s="13"/>
       <c r="C247" s="13"/>
       <c r="D247" s="33" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E247" s="13"/>
     </row>
@@ -8487,23 +8490,23 @@
         <v>61.0</v>
       </c>
       <c r="B248" s="20" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C248" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D248" s="30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E248" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="18"/>
       <c r="B249" s="18"/>
       <c r="C249" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D249" s="18"/>
       <c r="E249" s="18"/>
@@ -8512,7 +8515,7 @@
       <c r="A250" s="18"/>
       <c r="B250" s="18"/>
       <c r="C250" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D250" s="18"/>
       <c r="E250" s="18"/>
@@ -8521,7 +8524,7 @@
       <c r="A251" s="18"/>
       <c r="B251" s="18"/>
       <c r="C251" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D251" s="18"/>
       <c r="E251" s="18"/>
@@ -8530,7 +8533,7 @@
       <c r="A252" s="21"/>
       <c r="B252" s="21"/>
       <c r="C252" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D252" s="21"/>
       <c r="E252" s="21"/>
@@ -8540,23 +8543,23 @@
         <v>62.0</v>
       </c>
       <c r="B253" s="20" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C253" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D253" s="23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E253" s="12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="18"/>
       <c r="B254" s="18"/>
       <c r="C254" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D254" s="18"/>
       <c r="E254" s="18"/>
@@ -8565,7 +8568,7 @@
       <c r="A255" s="18"/>
       <c r="B255" s="18"/>
       <c r="C255" s="76" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D255" s="18"/>
       <c r="E255" s="18"/>
@@ -8574,7 +8577,7 @@
       <c r="A256" s="18"/>
       <c r="B256" s="18"/>
       <c r="C256" s="14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D256" s="18"/>
       <c r="E256" s="18"/>
@@ -8583,7 +8586,7 @@
       <c r="A257" s="18"/>
       <c r="B257" s="18"/>
       <c r="C257" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D257" s="18"/>
       <c r="E257" s="18"/>
@@ -8592,7 +8595,7 @@
       <c r="A258" s="18"/>
       <c r="B258" s="18"/>
       <c r="C258" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D258" s="18"/>
       <c r="E258" s="18"/>
@@ -8601,7 +8604,7 @@
       <c r="A259" s="18"/>
       <c r="B259" s="18"/>
       <c r="C259" s="14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D259" s="18"/>
       <c r="E259" s="18"/>
@@ -8610,7 +8613,7 @@
       <c r="A260" s="18"/>
       <c r="B260" s="18"/>
       <c r="C260" s="64" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D260" s="18"/>
       <c r="E260" s="18"/>
@@ -8619,7 +8622,7 @@
       <c r="A261" s="18"/>
       <c r="B261" s="18"/>
       <c r="C261" s="14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D261" s="18"/>
       <c r="E261" s="18"/>
@@ -8628,7 +8631,7 @@
       <c r="A262" s="18"/>
       <c r="B262" s="18"/>
       <c r="C262" s="27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D262" s="18"/>
       <c r="E262" s="18"/>
@@ -8637,7 +8640,7 @@
       <c r="A263" s="18"/>
       <c r="B263" s="18"/>
       <c r="C263" s="27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D263" s="18"/>
       <c r="E263" s="18"/>
@@ -8646,7 +8649,7 @@
       <c r="A264" s="21"/>
       <c r="B264" s="21"/>
       <c r="C264" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D264" s="21"/>
       <c r="E264" s="21"/>
@@ -8656,16 +8659,16 @@
         <v>63.0</v>
       </c>
       <c r="B265" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C265" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D265" s="30" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E265" s="12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="266">
@@ -8681,7 +8684,7 @@
       <c r="A267" s="18"/>
       <c r="B267" s="18"/>
       <c r="C267" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D267" s="18"/>
       <c r="E267" s="18"/>
@@ -8690,7 +8693,7 @@
       <c r="A268" s="18"/>
       <c r="B268" s="18"/>
       <c r="C268" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D268" s="18"/>
       <c r="E268" s="18"/>
@@ -8699,7 +8702,7 @@
       <c r="A269" s="18"/>
       <c r="B269" s="18"/>
       <c r="C269" s="14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D269" s="18"/>
       <c r="E269" s="18"/>
@@ -8708,7 +8711,7 @@
       <c r="A270" s="21"/>
       <c r="B270" s="21"/>
       <c r="C270" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D270" s="21"/>
       <c r="E270" s="21"/>
@@ -8718,16 +8721,16 @@
         <v>64.0</v>
       </c>
       <c r="B271" s="14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C271" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D271" s="23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E271" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="272">
@@ -8735,7 +8738,7 @@
       <c r="B272" s="19"/>
       <c r="C272" s="19"/>
       <c r="D272" s="32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E272" s="19"/>
     </row>
@@ -8744,7 +8747,7 @@
       <c r="B273" s="13"/>
       <c r="C273" s="13"/>
       <c r="D273" s="33" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E273" s="13"/>
     </row>
@@ -8753,23 +8756,23 @@
         <v>65.0</v>
       </c>
       <c r="B274" s="20" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C274" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D274" s="30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E274" s="12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="18"/>
       <c r="B275" s="18"/>
       <c r="C275" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D275" s="18"/>
       <c r="E275" s="18"/>
@@ -8778,7 +8781,7 @@
       <c r="A276" s="18"/>
       <c r="B276" s="18"/>
       <c r="C276" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D276" s="18"/>
       <c r="E276" s="18"/>
@@ -8787,7 +8790,7 @@
       <c r="A277" s="18"/>
       <c r="B277" s="18"/>
       <c r="C277" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D277" s="18"/>
       <c r="E277" s="18"/>
@@ -8796,7 +8799,7 @@
       <c r="A278" s="21"/>
       <c r="B278" s="21"/>
       <c r="C278" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D278" s="21"/>
       <c r="E278" s="21"/>
@@ -8806,23 +8809,23 @@
         <v>66.0</v>
       </c>
       <c r="B279" s="20" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C279" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D279" s="23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E279" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="18"/>
       <c r="B280" s="18"/>
       <c r="C280" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D280" s="18"/>
       <c r="E280" s="18"/>
@@ -8831,7 +8834,7 @@
       <c r="A281" s="18"/>
       <c r="B281" s="18"/>
       <c r="C281" s="76" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D281" s="18"/>
       <c r="E281" s="18"/>
@@ -8840,7 +8843,7 @@
       <c r="A282" s="18"/>
       <c r="B282" s="18"/>
       <c r="C282" s="14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D282" s="18"/>
       <c r="E282" s="18"/>
@@ -8849,7 +8852,7 @@
       <c r="A283" s="18"/>
       <c r="B283" s="18"/>
       <c r="C283" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D283" s="18"/>
       <c r="E283" s="18"/>
@@ -8858,7 +8861,7 @@
       <c r="A284" s="18"/>
       <c r="B284" s="18"/>
       <c r="C284" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D284" s="18"/>
       <c r="E284" s="18"/>
@@ -8867,7 +8870,7 @@
       <c r="A285" s="18"/>
       <c r="B285" s="18"/>
       <c r="C285" s="14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D285" s="18"/>
       <c r="E285" s="18"/>
@@ -8876,7 +8879,7 @@
       <c r="A286" s="18"/>
       <c r="B286" s="18"/>
       <c r="C286" s="64" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D286" s="18"/>
       <c r="E286" s="18"/>
@@ -8885,7 +8888,7 @@
       <c r="A287" s="18"/>
       <c r="B287" s="18"/>
       <c r="C287" s="14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D287" s="18"/>
       <c r="E287" s="18"/>
@@ -8894,7 +8897,7 @@
       <c r="A288" s="18"/>
       <c r="B288" s="18"/>
       <c r="C288" s="27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D288" s="18"/>
       <c r="E288" s="18"/>
@@ -8903,7 +8906,7 @@
       <c r="A289" s="18"/>
       <c r="B289" s="18"/>
       <c r="C289" s="27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D289" s="18"/>
       <c r="E289" s="18"/>
@@ -8912,7 +8915,7 @@
       <c r="A290" s="21"/>
       <c r="B290" s="21"/>
       <c r="C290" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D290" s="21"/>
       <c r="E290" s="21"/>
@@ -8922,16 +8925,16 @@
         <v>67.0</v>
       </c>
       <c r="B291" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C291" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D291" s="30" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E291" s="12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="292">
@@ -8947,7 +8950,7 @@
       <c r="A293" s="18"/>
       <c r="B293" s="18"/>
       <c r="C293" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D293" s="18"/>
       <c r="E293" s="18"/>
@@ -8956,7 +8959,7 @@
       <c r="A294" s="18"/>
       <c r="B294" s="18"/>
       <c r="C294" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D294" s="18"/>
       <c r="E294" s="18"/>
@@ -8965,7 +8968,7 @@
       <c r="A295" s="18"/>
       <c r="B295" s="18"/>
       <c r="C295" s="14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D295" s="18"/>
       <c r="E295" s="18"/>
@@ -8974,7 +8977,7 @@
       <c r="A296" s="21"/>
       <c r="B296" s="21"/>
       <c r="C296" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D296" s="21"/>
       <c r="E296" s="21"/>
@@ -8984,16 +8987,16 @@
         <v>68.0</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C297" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D297" s="23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E297" s="11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="298">
@@ -9001,7 +9004,7 @@
       <c r="B298" s="19"/>
       <c r="C298" s="19"/>
       <c r="D298" s="32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E298" s="19"/>
     </row>
@@ -9010,7 +9013,7 @@
       <c r="B299" s="13"/>
       <c r="C299" s="13"/>
       <c r="D299" s="33" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E299" s="13"/>
     </row>
@@ -9019,23 +9022,23 @@
         <v>69.0</v>
       </c>
       <c r="B300" s="20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C300" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D300" s="30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E300" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="18"/>
       <c r="B301" s="18"/>
       <c r="C301" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D301" s="18"/>
       <c r="E301" s="18"/>
@@ -9044,7 +9047,7 @@
       <c r="A302" s="18"/>
       <c r="B302" s="18"/>
       <c r="C302" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D302" s="18"/>
       <c r="E302" s="18"/>
@@ -9053,7 +9056,7 @@
       <c r="A303" s="18"/>
       <c r="B303" s="18"/>
       <c r="C303" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D303" s="18"/>
       <c r="E303" s="18"/>
@@ -9062,7 +9065,7 @@
       <c r="A304" s="21"/>
       <c r="B304" s="21"/>
       <c r="C304" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D304" s="21"/>
       <c r="E304" s="21"/>
@@ -9072,23 +9075,23 @@
         <v>70.0</v>
       </c>
       <c r="B305" s="20" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C305" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D305" s="23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E305" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="18"/>
       <c r="B306" s="18"/>
       <c r="C306" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D306" s="18"/>
       <c r="E306" s="18"/>
@@ -9097,7 +9100,7 @@
       <c r="A307" s="18"/>
       <c r="B307" s="18"/>
       <c r="C307" s="76" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D307" s="18"/>
       <c r="E307" s="18"/>
@@ -9106,7 +9109,7 @@
       <c r="A308" s="18"/>
       <c r="B308" s="18"/>
       <c r="C308" s="14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D308" s="18"/>
       <c r="E308" s="18"/>
@@ -9115,7 +9118,7 @@
       <c r="A309" s="18"/>
       <c r="B309" s="18"/>
       <c r="C309" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D309" s="18"/>
       <c r="E309" s="18"/>
@@ -9124,7 +9127,7 @@
       <c r="A310" s="18"/>
       <c r="B310" s="18"/>
       <c r="C310" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D310" s="18"/>
       <c r="E310" s="18"/>
@@ -9133,7 +9136,7 @@
       <c r="A311" s="18"/>
       <c r="B311" s="18"/>
       <c r="C311" s="14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D311" s="18"/>
       <c r="E311" s="18"/>
@@ -9142,7 +9145,7 @@
       <c r="A312" s="18"/>
       <c r="B312" s="18"/>
       <c r="C312" s="64" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D312" s="18"/>
       <c r="E312" s="18"/>
@@ -9151,7 +9154,7 @@
       <c r="A313" s="18"/>
       <c r="B313" s="18"/>
       <c r="C313" s="14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D313" s="18"/>
       <c r="E313" s="18"/>
@@ -9160,7 +9163,7 @@
       <c r="A314" s="18"/>
       <c r="B314" s="18"/>
       <c r="C314" s="27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D314" s="18"/>
       <c r="E314" s="18"/>
@@ -9169,7 +9172,7 @@
       <c r="A315" s="18"/>
       <c r="B315" s="18"/>
       <c r="C315" s="27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D315" s="18"/>
       <c r="E315" s="18"/>
@@ -9178,7 +9181,7 @@
       <c r="A316" s="21"/>
       <c r="B316" s="21"/>
       <c r="C316" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D316" s="21"/>
       <c r="E316" s="21"/>
@@ -9188,16 +9191,16 @@
         <v>71.0</v>
       </c>
       <c r="B317" s="20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C317" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D317" s="30" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E317" s="12" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="318">
@@ -9213,7 +9216,7 @@
       <c r="A319" s="18"/>
       <c r="B319" s="18"/>
       <c r="C319" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D319" s="18"/>
       <c r="E319" s="18"/>
@@ -9222,7 +9225,7 @@
       <c r="A320" s="18"/>
       <c r="B320" s="18"/>
       <c r="C320" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D320" s="18"/>
       <c r="E320" s="18"/>
@@ -9231,7 +9234,7 @@
       <c r="A321" s="18"/>
       <c r="B321" s="18"/>
       <c r="C321" s="14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D321" s="18"/>
       <c r="E321" s="18"/>
@@ -9240,7 +9243,7 @@
       <c r="A322" s="21"/>
       <c r="B322" s="21"/>
       <c r="C322" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D322" s="21"/>
       <c r="E322" s="21"/>
@@ -9250,16 +9253,16 @@
         <v>72.0</v>
       </c>
       <c r="B323" s="14" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C323" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D323" s="23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E323" s="11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="324">
@@ -9267,7 +9270,7 @@
       <c r="B324" s="19"/>
       <c r="C324" s="19"/>
       <c r="D324" s="32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E324" s="19"/>
     </row>
@@ -9276,7 +9279,7 @@
       <c r="B325" s="13"/>
       <c r="C325" s="13"/>
       <c r="D325" s="33" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E325" s="13"/>
     </row>
@@ -9285,23 +9288,23 @@
         <v>73.0</v>
       </c>
       <c r="B326" s="20" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C326" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D326" s="30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E326" s="12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="18"/>
       <c r="B327" s="18"/>
       <c r="C327" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D327" s="18"/>
       <c r="E327" s="18"/>
@@ -9310,7 +9313,7 @@
       <c r="A328" s="18"/>
       <c r="B328" s="18"/>
       <c r="C328" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D328" s="18"/>
       <c r="E328" s="18"/>
@@ -9319,7 +9322,7 @@
       <c r="A329" s="18"/>
       <c r="B329" s="18"/>
       <c r="C329" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D329" s="18"/>
       <c r="E329" s="18"/>
@@ -9328,7 +9331,7 @@
       <c r="A330" s="21"/>
       <c r="B330" s="21"/>
       <c r="C330" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D330" s="21"/>
       <c r="E330" s="21"/>
@@ -9338,23 +9341,23 @@
         <v>74.0</v>
       </c>
       <c r="B331" s="20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C331" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D331" s="23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E331" s="12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="18"/>
       <c r="B332" s="18"/>
       <c r="C332" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D332" s="18"/>
       <c r="E332" s="18"/>
@@ -9363,7 +9366,7 @@
       <c r="A333" s="18"/>
       <c r="B333" s="18"/>
       <c r="C333" s="76" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D333" s="18"/>
       <c r="E333" s="18"/>
@@ -9372,7 +9375,7 @@
       <c r="A334" s="18"/>
       <c r="B334" s="18"/>
       <c r="C334" s="14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D334" s="18"/>
       <c r="E334" s="18"/>
@@ -9381,7 +9384,7 @@
       <c r="A335" s="18"/>
       <c r="B335" s="18"/>
       <c r="C335" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D335" s="18"/>
       <c r="E335" s="18"/>
@@ -9390,7 +9393,7 @@
       <c r="A336" s="18"/>
       <c r="B336" s="18"/>
       <c r="C336" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D336" s="18"/>
       <c r="E336" s="18"/>
@@ -9399,7 +9402,7 @@
       <c r="A337" s="18"/>
       <c r="B337" s="18"/>
       <c r="C337" s="14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D337" s="18"/>
       <c r="E337" s="18"/>
@@ -9408,7 +9411,7 @@
       <c r="A338" s="18"/>
       <c r="B338" s="18"/>
       <c r="C338" s="64" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D338" s="18"/>
       <c r="E338" s="18"/>
@@ -9417,7 +9420,7 @@
       <c r="A339" s="18"/>
       <c r="B339" s="18"/>
       <c r="C339" s="14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D339" s="18"/>
       <c r="E339" s="18"/>
@@ -9426,7 +9429,7 @@
       <c r="A340" s="18"/>
       <c r="B340" s="18"/>
       <c r="C340" s="27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D340" s="18"/>
       <c r="E340" s="18"/>
@@ -9435,7 +9438,7 @@
       <c r="A341" s="18"/>
       <c r="B341" s="18"/>
       <c r="C341" s="27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D341" s="18"/>
       <c r="E341" s="18"/>
@@ -9444,7 +9447,7 @@
       <c r="A342" s="21"/>
       <c r="B342" s="21"/>
       <c r="C342" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D342" s="21"/>
       <c r="E342" s="21"/>
@@ -9454,16 +9457,16 @@
         <v>75.0</v>
       </c>
       <c r="B343" s="20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C343" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D343" s="30" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E343" s="12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="344">
@@ -9479,7 +9482,7 @@
       <c r="A345" s="18"/>
       <c r="B345" s="18"/>
       <c r="C345" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D345" s="18"/>
       <c r="E345" s="18"/>
@@ -9488,7 +9491,7 @@
       <c r="A346" s="18"/>
       <c r="B346" s="18"/>
       <c r="C346" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D346" s="18"/>
       <c r="E346" s="18"/>
@@ -9497,7 +9500,7 @@
       <c r="A347" s="18"/>
       <c r="B347" s="18"/>
       <c r="C347" s="14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D347" s="18"/>
       <c r="E347" s="18"/>
@@ -9506,7 +9509,7 @@
       <c r="A348" s="21"/>
       <c r="B348" s="21"/>
       <c r="C348" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D348" s="21"/>
       <c r="E348" s="21"/>
@@ -9516,16 +9519,16 @@
         <v>76.0</v>
       </c>
       <c r="B349" s="14" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C349" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D349" s="23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E349" s="11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="350">
@@ -9533,7 +9536,7 @@
       <c r="B350" s="19"/>
       <c r="C350" s="19"/>
       <c r="D350" s="32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E350" s="19"/>
     </row>
@@ -9542,7 +9545,7 @@
       <c r="B351" s="13"/>
       <c r="C351" s="13"/>
       <c r="D351" s="33" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E351" s="13"/>
     </row>
@@ -9551,23 +9554,23 @@
         <v>77.0</v>
       </c>
       <c r="B352" s="20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C352" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D352" s="30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E352" s="12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="18"/>
       <c r="B353" s="18"/>
       <c r="C353" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D353" s="18"/>
       <c r="E353" s="18"/>
@@ -9576,7 +9579,7 @@
       <c r="A354" s="18"/>
       <c r="B354" s="18"/>
       <c r="C354" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D354" s="18"/>
       <c r="E354" s="18"/>
@@ -9585,7 +9588,7 @@
       <c r="A355" s="18"/>
       <c r="B355" s="18"/>
       <c r="C355" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D355" s="18"/>
       <c r="E355" s="18"/>
@@ -9594,7 +9597,7 @@
       <c r="A356" s="21"/>
       <c r="B356" s="21"/>
       <c r="C356" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D356" s="21"/>
       <c r="E356" s="21"/>
@@ -9604,23 +9607,23 @@
         <v>78.0</v>
       </c>
       <c r="B357" s="20" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C357" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D357" s="23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E357" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="18"/>
       <c r="B358" s="18"/>
       <c r="C358" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D358" s="18"/>
       <c r="E358" s="18"/>
@@ -9629,7 +9632,7 @@
       <c r="A359" s="18"/>
       <c r="B359" s="18"/>
       <c r="C359" s="76" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D359" s="18"/>
       <c r="E359" s="18"/>
@@ -9638,7 +9641,7 @@
       <c r="A360" s="18"/>
       <c r="B360" s="18"/>
       <c r="C360" s="14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D360" s="18"/>
       <c r="E360" s="18"/>
@@ -9647,7 +9650,7 @@
       <c r="A361" s="18"/>
       <c r="B361" s="18"/>
       <c r="C361" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D361" s="18"/>
       <c r="E361" s="18"/>
@@ -9656,7 +9659,7 @@
       <c r="A362" s="18"/>
       <c r="B362" s="18"/>
       <c r="C362" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D362" s="18"/>
       <c r="E362" s="18"/>
@@ -9665,7 +9668,7 @@
       <c r="A363" s="18"/>
       <c r="B363" s="18"/>
       <c r="C363" s="14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D363" s="18"/>
       <c r="E363" s="18"/>
@@ -9674,7 +9677,7 @@
       <c r="A364" s="18"/>
       <c r="B364" s="18"/>
       <c r="C364" s="64" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D364" s="18"/>
       <c r="E364" s="18"/>
@@ -9683,7 +9686,7 @@
       <c r="A365" s="18"/>
       <c r="B365" s="18"/>
       <c r="C365" s="14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D365" s="18"/>
       <c r="E365" s="18"/>
@@ -9692,7 +9695,7 @@
       <c r="A366" s="18"/>
       <c r="B366" s="18"/>
       <c r="C366" s="27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D366" s="18"/>
       <c r="E366" s="18"/>
@@ -9701,7 +9704,7 @@
       <c r="A367" s="18"/>
       <c r="B367" s="18"/>
       <c r="C367" s="27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D367" s="18"/>
       <c r="E367" s="18"/>
@@ -9710,14 +9713,14 @@
       <c r="A368" s="21"/>
       <c r="B368" s="21"/>
       <c r="C368" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D368" s="21"/>
       <c r="E368" s="21"/>
     </row>
     <row r="369" ht="24.0" customHeight="1">
       <c r="A369" s="79" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -9729,13 +9732,13 @@
         <v>79.0</v>
       </c>
       <c r="B370" s="50" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C370" s="17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D370" s="25" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E370" s="12" t="s">
         <v>9</v>
@@ -9754,7 +9757,7 @@
       <c r="A372" s="18"/>
       <c r="B372" s="51"/>
       <c r="C372" s="20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D372" s="19"/>
       <c r="E372" s="18"/>
@@ -9763,7 +9766,7 @@
       <c r="A373" s="18"/>
       <c r="B373" s="51"/>
       <c r="C373" s="20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D373" s="19"/>
       <c r="E373" s="18"/>
@@ -9772,7 +9775,7 @@
       <c r="A374" s="18"/>
       <c r="B374" s="51"/>
       <c r="C374" s="20" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D374" s="19"/>
       <c r="E374" s="18"/>
@@ -9790,7 +9793,7 @@
       <c r="A376" s="18"/>
       <c r="B376" s="51"/>
       <c r="C376" s="32" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D376" s="19"/>
       <c r="E376" s="18"/>
@@ -9799,7 +9802,7 @@
       <c r="A377" s="21"/>
       <c r="B377" s="53"/>
       <c r="C377" s="22" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D377" s="13"/>
       <c r="E377" s="21"/>
@@ -9809,23 +9812,23 @@
         <v>80.0</v>
       </c>
       <c r="B378" s="17" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C378" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D378" s="16" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E378" s="15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="18"/>
       <c r="B379" s="18"/>
       <c r="C379" s="14" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D379" s="19"/>
       <c r="E379" s="18"/>
@@ -9834,7 +9837,7 @@
       <c r="A380" s="18"/>
       <c r="B380" s="18"/>
       <c r="C380" s="14" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D380" s="19"/>
       <c r="E380" s="18"/>
@@ -9843,7 +9846,7 @@
       <c r="A381" s="18"/>
       <c r="B381" s="18"/>
       <c r="C381" s="14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D381" s="19"/>
       <c r="E381" s="18"/>
@@ -9852,7 +9855,7 @@
       <c r="A382" s="21"/>
       <c r="B382" s="21"/>
       <c r="C382" s="80" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D382" s="13"/>
       <c r="E382" s="21"/>
@@ -9862,16 +9865,16 @@
         <v>81.0</v>
       </c>
       <c r="B383" s="30" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C383" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D383" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E383" s="12" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="384">
@@ -9896,7 +9899,7 @@
       <c r="A386" s="21"/>
       <c r="B386" s="21"/>
       <c r="C386" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D386" s="21"/>
       <c r="E386" s="21"/>
@@ -9906,13 +9909,13 @@
         <v>82.0</v>
       </c>
       <c r="B387" s="20" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C387" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D387" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E387" s="11" t="s">
         <v>9</v>
@@ -9980,7 +9983,7 @@
       <c r="A390" s="21"/>
       <c r="B390" s="21"/>
       <c r="C390" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D390" s="21"/>
       <c r="E390" s="13"/>
@@ -10010,16 +10013,16 @@
         <v>83.0</v>
       </c>
       <c r="B391" s="20" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C391" s="24" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D391" s="30" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E391" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F391" s="6"/>
       <c r="G391" s="6"/>
@@ -10075,7 +10078,7 @@
       <c r="A393" s="18"/>
       <c r="B393" s="18"/>
       <c r="C393" s="14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D393" s="18"/>
       <c r="E393" s="18"/>
@@ -10104,7 +10107,7 @@
       <c r="A394" s="18"/>
       <c r="B394" s="18"/>
       <c r="C394" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D394" s="18"/>
       <c r="E394" s="18"/>
@@ -10135,7 +10138,7 @@
       </c>
       <c r="B395" s="18"/>
       <c r="C395" s="14" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D395" s="18"/>
       <c r="E395" s="18"/>
@@ -10193,7 +10196,7 @@
       <c r="A397" s="18"/>
       <c r="B397" s="18"/>
       <c r="C397" s="14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D397" s="18"/>
       <c r="E397" s="18"/>
@@ -10222,7 +10225,7 @@
       <c r="A398" s="21"/>
       <c r="B398" s="18"/>
       <c r="C398" s="14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D398" s="18"/>
       <c r="E398" s="18"/>
@@ -10253,7 +10256,7 @@
       </c>
       <c r="B399" s="18"/>
       <c r="C399" s="24" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D399" s="18"/>
       <c r="E399" s="18"/>
@@ -10311,7 +10314,7 @@
       <c r="A401" s="18"/>
       <c r="B401" s="18"/>
       <c r="C401" s="14" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D401" s="18"/>
       <c r="E401" s="18"/>
@@ -10342,7 +10345,7 @@
       </c>
       <c r="B402" s="18"/>
       <c r="C402" s="24" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D402" s="18"/>
       <c r="E402" s="18"/>
@@ -10400,7 +10403,7 @@
       <c r="A404" s="18"/>
       <c r="B404" s="18"/>
       <c r="C404" s="14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D404" s="18"/>
       <c r="E404" s="18"/>
@@ -10429,7 +10432,7 @@
       <c r="A405" s="21"/>
       <c r="B405" s="18"/>
       <c r="C405" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D405" s="18"/>
       <c r="E405" s="21"/>
@@ -10460,11 +10463,11 @@
       </c>
       <c r="B406" s="18"/>
       <c r="C406" s="14" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D406" s="18"/>
       <c r="E406" s="12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F406" s="6"/>
       <c r="G406" s="6"/>
@@ -10520,7 +10523,7 @@
       <c r="A408" s="18"/>
       <c r="B408" s="18"/>
       <c r="C408" s="14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D408" s="18"/>
       <c r="E408" s="18"/>
@@ -10549,7 +10552,7 @@
       <c r="A409" s="21"/>
       <c r="B409" s="18"/>
       <c r="C409" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D409" s="18"/>
       <c r="E409" s="18"/>
@@ -10580,7 +10583,7 @@
       </c>
       <c r="B410" s="18"/>
       <c r="C410" s="14" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D410" s="18"/>
       <c r="E410" s="18"/>
@@ -10638,7 +10641,7 @@
       <c r="A412" s="18"/>
       <c r="B412" s="18"/>
       <c r="C412" s="14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D412" s="18"/>
       <c r="E412" s="18"/>
@@ -10667,7 +10670,7 @@
       <c r="A413" s="21"/>
       <c r="B413" s="21"/>
       <c r="C413" s="14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D413" s="21"/>
       <c r="E413" s="21"/>
@@ -10697,13 +10700,13 @@
         <v>89.0</v>
       </c>
       <c r="B414" s="59" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C414" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D414" s="16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E414" s="11" t="s">
         <v>9</v>
@@ -10788,7 +10791,7 @@
     <row r="417">
       <c r="A417" s="21"/>
       <c r="C417" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D417" s="19"/>
       <c r="E417" s="19"/>
@@ -10818,16 +10821,16 @@
         <v>90.0</v>
       </c>
       <c r="B418" s="50" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C418" s="17" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D418" s="25" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E418" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F418" s="6"/>
       <c r="G418" s="6"/>
@@ -10883,7 +10886,7 @@
       <c r="A420" s="18"/>
       <c r="B420" s="51"/>
       <c r="C420" s="32" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D420" s="19"/>
       <c r="E420" s="18"/>
@@ -10912,7 +10915,7 @@
       <c r="A421" s="21"/>
       <c r="B421" s="53"/>
       <c r="C421" s="32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D421" s="19"/>
       <c r="E421" s="18"/>
@@ -10942,7 +10945,7 @@
         <v>91.0</v>
       </c>
       <c r="B422" s="30" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C422" s="17" t="s">
         <v>19</v>
@@ -10974,7 +10977,7 @@
       <c r="A423" s="18"/>
       <c r="B423" s="18"/>
       <c r="C423" s="32" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D423" s="19"/>
       <c r="E423" s="18"/>
@@ -11003,7 +11006,7 @@
       <c r="A424" s="21"/>
       <c r="B424" s="21"/>
       <c r="C424" s="32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D424" s="19"/>
       <c r="E424" s="18"/>
@@ -11033,10 +11036,10 @@
         <v>92.0</v>
       </c>
       <c r="B425" s="58" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C425" s="81" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D425" s="19"/>
       <c r="E425" s="18"/>
@@ -11094,7 +11097,7 @@
       <c r="A427" s="18"/>
       <c r="B427" s="51"/>
       <c r="C427" s="32" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D427" s="19"/>
       <c r="E427" s="18"/>
@@ -11123,7 +11126,7 @@
       <c r="A428" s="21"/>
       <c r="B428" s="53"/>
       <c r="C428" s="33" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D428" s="19"/>
       <c r="E428" s="18"/>
@@ -11153,7 +11156,7 @@
         <v>93.0</v>
       </c>
       <c r="B429" s="82" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C429" s="17" t="s">
         <v>19</v>
@@ -11185,7 +11188,7 @@
       <c r="A430" s="18"/>
       <c r="B430" s="18"/>
       <c r="C430" s="32" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D430" s="19"/>
       <c r="E430" s="18"/>
@@ -11214,7 +11217,7 @@
       <c r="A431" s="21"/>
       <c r="B431" s="21"/>
       <c r="C431" s="32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D431" s="19"/>
       <c r="E431" s="18"/>
@@ -11244,10 +11247,10 @@
         <v>94.0</v>
       </c>
       <c r="B432" s="58" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C432" s="82" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D432" s="19"/>
       <c r="E432" s="18"/>
@@ -11305,7 +11308,7 @@
       <c r="A434" s="18"/>
       <c r="B434" s="51"/>
       <c r="C434" s="32" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D434" s="19"/>
       <c r="E434" s="18"/>
@@ -11334,7 +11337,7 @@
       <c r="A435" s="21"/>
       <c r="B435" s="53"/>
       <c r="C435" s="33" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D435" s="19"/>
       <c r="E435" s="18"/>
@@ -11364,7 +11367,7 @@
         <v>95.0</v>
       </c>
       <c r="B436" s="30" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C436" s="17" t="s">
         <v>19</v>
@@ -11396,7 +11399,7 @@
       <c r="A437" s="18"/>
       <c r="B437" s="18"/>
       <c r="C437" s="32" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D437" s="19"/>
       <c r="E437" s="18"/>
@@ -11425,7 +11428,7 @@
       <c r="A438" s="21"/>
       <c r="B438" s="21"/>
       <c r="C438" s="32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D438" s="19"/>
       <c r="E438" s="18"/>
@@ -11455,10 +11458,10 @@
         <v>96.0</v>
       </c>
       <c r="B439" s="58" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C439" s="17" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D439" s="19"/>
       <c r="E439" s="18"/>
@@ -11516,7 +11519,7 @@
       <c r="A441" s="18"/>
       <c r="B441" s="51"/>
       <c r="C441" s="32" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D441" s="19"/>
       <c r="E441" s="18"/>
@@ -11545,7 +11548,7 @@
       <c r="A442" s="21"/>
       <c r="B442" s="53"/>
       <c r="C442" s="33" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D442" s="19"/>
       <c r="E442" s="18"/>
@@ -11575,7 +11578,7 @@
         <v>97.0</v>
       </c>
       <c r="B443" s="30" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C443" s="17" t="s">
         <v>19</v>
@@ -11607,7 +11610,7 @@
       <c r="A444" s="18"/>
       <c r="B444" s="18"/>
       <c r="C444" s="32" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D444" s="19"/>
       <c r="E444" s="18"/>
@@ -11636,7 +11639,7 @@
       <c r="A445" s="21"/>
       <c r="B445" s="21"/>
       <c r="C445" s="32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D445" s="19"/>
       <c r="E445" s="18"/>
@@ -11666,10 +11669,10 @@
         <v>98.0</v>
       </c>
       <c r="B446" s="30" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C446" s="17" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D446" s="19"/>
       <c r="E446" s="18"/>
@@ -11727,7 +11730,7 @@
       <c r="A448" s="18"/>
       <c r="B448" s="18"/>
       <c r="C448" s="32" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D448" s="19"/>
       <c r="E448" s="18"/>
@@ -11756,7 +11759,7 @@
       <c r="A449" s="21"/>
       <c r="B449" s="21"/>
       <c r="C449" s="33" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D449" s="19"/>
       <c r="E449" s="18"/>
@@ -11786,7 +11789,7 @@
         <v>99.0</v>
       </c>
       <c r="B450" s="30" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C450" s="17" t="s">
         <v>19</v>
@@ -11818,7 +11821,7 @@
       <c r="A451" s="18"/>
       <c r="B451" s="18"/>
       <c r="C451" s="32" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D451" s="19"/>
       <c r="E451" s="18"/>
@@ -11847,7 +11850,7 @@
       <c r="A452" s="21"/>
       <c r="B452" s="21"/>
       <c r="C452" s="33" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D452" s="13"/>
       <c r="E452" s="21"/>
@@ -11874,7 +11877,7 @@
     </row>
     <row r="453" ht="21.75" customHeight="1">
       <c r="A453" s="83" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
@@ -11906,13 +11909,13 @@
         <v>100.0</v>
       </c>
       <c r="B454" s="23" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C454" s="24" t="s">
         <v>19</v>
       </c>
       <c r="D454" s="30" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E454" s="12" t="s">
         <v>9</v>
@@ -11942,7 +11945,7 @@
       <c r="A455" s="18"/>
       <c r="B455" s="18"/>
       <c r="C455" s="14" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D455" s="18"/>
       <c r="E455" s="18"/>
@@ -11971,7 +11974,7 @@
       <c r="A456" s="18"/>
       <c r="B456" s="18"/>
       <c r="C456" s="14" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D456" s="18"/>
       <c r="E456" s="18"/>
@@ -12000,7 +12003,7 @@
       <c r="A457" s="18"/>
       <c r="B457" s="18"/>
       <c r="C457" s="14" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D457" s="18"/>
       <c r="E457" s="18"/>
@@ -12029,7 +12032,7 @@
       <c r="A458" s="18"/>
       <c r="B458" s="18"/>
       <c r="C458" s="64" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D458" s="18"/>
       <c r="E458" s="18"/>
@@ -12058,7 +12061,7 @@
       <c r="A459" s="18"/>
       <c r="B459" s="18"/>
       <c r="C459" s="64" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D459" s="18"/>
       <c r="E459" s="18"/>
@@ -12087,7 +12090,7 @@
       <c r="A460" s="18"/>
       <c r="B460" s="18"/>
       <c r="C460" s="64" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D460" s="18"/>
       <c r="E460" s="18"/>
@@ -12116,7 +12119,7 @@
       <c r="A461" s="18"/>
       <c r="B461" s="18"/>
       <c r="C461" s="14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D461" s="18"/>
       <c r="E461" s="18"/>
@@ -12145,7 +12148,7 @@
       <c r="A462" s="21"/>
       <c r="B462" s="18"/>
       <c r="C462" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D462" s="18"/>
       <c r="E462" s="21"/>
@@ -12175,16 +12178,16 @@
         <v>101.0</v>
       </c>
       <c r="B463" s="23" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C463" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D463" s="23" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E463" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F463" s="6"/>
       <c r="G463" s="6"/>
@@ -12211,7 +12214,7 @@
       <c r="A464" s="18"/>
       <c r="B464" s="18"/>
       <c r="C464" s="14" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D464" s="18"/>
       <c r="E464" s="18"/>
@@ -12240,7 +12243,7 @@
       <c r="A465" s="18"/>
       <c r="B465" s="18"/>
       <c r="C465" s="14" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D465" s="18"/>
       <c r="E465" s="18"/>
@@ -12269,7 +12272,7 @@
       <c r="A466" s="18"/>
       <c r="B466" s="18"/>
       <c r="C466" s="64" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D466" s="18"/>
       <c r="E466" s="18"/>
@@ -12298,7 +12301,7 @@
       <c r="A467" s="18"/>
       <c r="B467" s="18"/>
       <c r="C467" s="64" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D467" s="18"/>
       <c r="E467" s="18"/>
@@ -12327,7 +12330,7 @@
       <c r="A468" s="18"/>
       <c r="B468" s="18"/>
       <c r="C468" s="14" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D468" s="18"/>
       <c r="E468" s="18"/>
@@ -12356,7 +12359,7 @@
       <c r="A469" s="18"/>
       <c r="B469" s="18"/>
       <c r="C469" s="14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D469" s="18"/>
       <c r="E469" s="18"/>
@@ -12385,7 +12388,7 @@
       <c r="A470" s="21"/>
       <c r="B470" s="21"/>
       <c r="C470" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D470" s="21"/>
       <c r="E470" s="21"/>
@@ -12415,13 +12418,13 @@
         <v>102.0</v>
       </c>
       <c r="B471" s="20" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C471" s="14" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D471" s="85" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E471" s="12" t="s">
         <v>9</v>
@@ -12480,7 +12483,7 @@
       <c r="A473" s="18"/>
       <c r="B473" s="18"/>
       <c r="C473" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D473" s="18"/>
       <c r="E473" s="18"/>
@@ -12509,7 +12512,7 @@
       <c r="A474" s="18"/>
       <c r="B474" s="18"/>
       <c r="C474" s="16" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D474" s="18"/>
       <c r="E474" s="18"/>
@@ -12538,7 +12541,7 @@
       <c r="A475" s="18"/>
       <c r="B475" s="18"/>
       <c r="C475" s="16" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D475" s="18"/>
       <c r="E475" s="18"/>
@@ -12567,7 +12570,7 @@
       <c r="A476" s="18"/>
       <c r="B476" s="18"/>
       <c r="C476" s="16" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D476" s="18"/>
       <c r="E476" s="18"/>
@@ -12596,7 +12599,7 @@
       <c r="A477" s="18"/>
       <c r="B477" s="18"/>
       <c r="C477" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D477" s="18"/>
       <c r="E477" s="18"/>
@@ -12625,7 +12628,7 @@
       <c r="A478" s="18"/>
       <c r="B478" s="18"/>
       <c r="C478" s="16" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D478" s="18"/>
       <c r="E478" s="18"/>
@@ -12654,7 +12657,7 @@
       <c r="A479" s="18"/>
       <c r="B479" s="18"/>
       <c r="C479" s="16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D479" s="18"/>
       <c r="E479" s="18"/>
@@ -12683,7 +12686,7 @@
       <c r="A480" s="18"/>
       <c r="B480" s="18"/>
       <c r="C480" s="14" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D480" s="18"/>
       <c r="E480" s="18"/>
@@ -12712,7 +12715,7 @@
       <c r="A481" s="18"/>
       <c r="B481" s="18"/>
       <c r="C481" s="14" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D481" s="18"/>
       <c r="E481" s="18"/>
@@ -12741,7 +12744,7 @@
       <c r="A482" s="18"/>
       <c r="B482" s="18"/>
       <c r="C482" s="14" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D482" s="18"/>
       <c r="E482" s="18"/>
@@ -12770,7 +12773,7 @@
       <c r="A483" s="18"/>
       <c r="B483" s="18"/>
       <c r="C483" s="16" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D483" s="18"/>
       <c r="E483" s="18"/>
@@ -12799,7 +12802,7 @@
       <c r="A484" s="18"/>
       <c r="B484" s="18"/>
       <c r="C484" s="14" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D484" s="18"/>
       <c r="E484" s="18"/>
@@ -12828,7 +12831,7 @@
       <c r="A485" s="18"/>
       <c r="B485" s="18"/>
       <c r="C485" s="14" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D485" s="18"/>
       <c r="E485" s="18"/>
@@ -12857,7 +12860,7 @@
       <c r="A486" s="18"/>
       <c r="B486" s="18"/>
       <c r="C486" s="14" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D486" s="18"/>
       <c r="E486" s="18"/>
@@ -12886,7 +12889,7 @@
       <c r="A487" s="18"/>
       <c r="B487" s="18"/>
       <c r="C487" s="14" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D487" s="18"/>
       <c r="E487" s="18"/>
@@ -12915,7 +12918,7 @@
       <c r="A488" s="18"/>
       <c r="B488" s="18"/>
       <c r="C488" s="14" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D488" s="18"/>
       <c r="E488" s="18"/>
@@ -12944,7 +12947,7 @@
       <c r="A489" s="18"/>
       <c r="B489" s="18"/>
       <c r="C489" s="14" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D489" s="18"/>
       <c r="E489" s="18"/>
@@ -12973,7 +12976,7 @@
       <c r="A490" s="18"/>
       <c r="B490" s="18"/>
       <c r="C490" s="14" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D490" s="18"/>
       <c r="E490" s="18"/>
@@ -13002,7 +13005,7 @@
       <c r="A491" s="18"/>
       <c r="B491" s="18"/>
       <c r="C491" s="14" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D491" s="18"/>
       <c r="E491" s="18"/>
@@ -13031,7 +13034,7 @@
       <c r="A492" s="18"/>
       <c r="B492" s="18"/>
       <c r="C492" s="14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D492" s="18"/>
       <c r="E492" s="18"/>
@@ -13060,7 +13063,7 @@
       <c r="A493" s="18"/>
       <c r="B493" s="18"/>
       <c r="C493" s="14" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D493" s="18"/>
       <c r="E493" s="18"/>
@@ -13089,7 +13092,7 @@
       <c r="A494" s="18"/>
       <c r="B494" s="18"/>
       <c r="C494" s="14" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D494" s="18"/>
       <c r="E494" s="18"/>
@@ -13118,7 +13121,7 @@
       <c r="A495" s="18"/>
       <c r="B495" s="18"/>
       <c r="C495" s="14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D495" s="18"/>
       <c r="E495" s="18"/>
@@ -13147,7 +13150,7 @@
       <c r="A496" s="18"/>
       <c r="B496" s="18"/>
       <c r="C496" s="14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D496" s="18"/>
       <c r="E496" s="18"/>
@@ -13176,7 +13179,7 @@
       <c r="A497" s="18"/>
       <c r="B497" s="18"/>
       <c r="C497" s="14" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D497" s="18"/>
       <c r="E497" s="18"/>
@@ -13205,7 +13208,7 @@
       <c r="A498" s="18"/>
       <c r="B498" s="18"/>
       <c r="C498" s="14" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D498" s="18"/>
       <c r="E498" s="18"/>
@@ -13234,7 +13237,7 @@
       <c r="A499" s="18"/>
       <c r="B499" s="18"/>
       <c r="C499" s="14" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D499" s="18"/>
       <c r="E499" s="18"/>
@@ -13263,7 +13266,7 @@
       <c r="A500" s="18"/>
       <c r="B500" s="18"/>
       <c r="C500" s="14" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D500" s="18"/>
       <c r="E500" s="18"/>
@@ -13292,7 +13295,7 @@
       <c r="A501" s="18"/>
       <c r="B501" s="18"/>
       <c r="C501" s="14" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D501" s="18"/>
       <c r="E501" s="18"/>
@@ -13321,7 +13324,7 @@
       <c r="A502" s="18"/>
       <c r="B502" s="18"/>
       <c r="C502" s="14" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D502" s="18"/>
       <c r="E502" s="18"/>
@@ -13350,7 +13353,7 @@
       <c r="A503" s="18"/>
       <c r="B503" s="18"/>
       <c r="C503" s="14" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D503" s="18"/>
       <c r="E503" s="18"/>
@@ -13379,7 +13382,7 @@
       <c r="A504" s="18"/>
       <c r="B504" s="18"/>
       <c r="C504" s="14" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D504" s="18"/>
       <c r="E504" s="18"/>
@@ -13408,7 +13411,7 @@
       <c r="A505" s="18"/>
       <c r="B505" s="18"/>
       <c r="C505" s="30" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D505" s="18"/>
       <c r="E505" s="18"/>
@@ -13437,7 +13440,7 @@
       <c r="A506" s="18"/>
       <c r="B506" s="18"/>
       <c r="C506" s="14" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D506" s="18"/>
       <c r="E506" s="18"/>
@@ -13466,7 +13469,7 @@
       <c r="A507" s="21"/>
       <c r="B507" s="21"/>
       <c r="C507" s="14" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D507" s="21"/>
       <c r="E507" s="21"/>
@@ -13496,7 +13499,7 @@
         <v>103.0</v>
       </c>
       <c r="B508" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C508" s="25" t="s">
         <v>56</v>
@@ -13505,7 +13508,7 @@
         <v>57</v>
       </c>
       <c r="E508" s="35" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F508" s="6"/>
       <c r="G508" s="6"/>
@@ -13533,16 +13536,16 @@
         <v>104.0</v>
       </c>
       <c r="B509" s="50" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C509" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D509" s="16" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E509" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F509" s="6"/>
       <c r="G509" s="6"/>
@@ -13569,7 +13572,7 @@
       <c r="A510" s="18"/>
       <c r="B510" s="51"/>
       <c r="C510" s="20" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D510" s="19"/>
       <c r="E510" s="18"/>
@@ -13598,7 +13601,7 @@
       <c r="A511" s="18"/>
       <c r="B511" s="51"/>
       <c r="C511" s="20" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D511" s="19"/>
       <c r="E511" s="18"/>
@@ -13627,7 +13630,7 @@
       <c r="A512" s="18"/>
       <c r="B512" s="51"/>
       <c r="C512" s="20" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D512" s="19"/>
       <c r="E512" s="18"/>
@@ -13656,7 +13659,7 @@
       <c r="A513" s="18"/>
       <c r="B513" s="51"/>
       <c r="C513" s="20" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D513" s="19"/>
       <c r="E513" s="18"/>
@@ -13685,7 +13688,7 @@
       <c r="A514" s="18"/>
       <c r="B514" s="51"/>
       <c r="C514" s="20" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D514" s="19"/>
       <c r="E514" s="18"/>
@@ -13714,7 +13717,7 @@
       <c r="A515" s="18"/>
       <c r="B515" s="51"/>
       <c r="C515" s="20" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D515" s="19"/>
       <c r="E515" s="18"/>
@@ -13743,7 +13746,7 @@
       <c r="A516" s="18"/>
       <c r="B516" s="51"/>
       <c r="C516" s="20" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D516" s="19"/>
       <c r="E516" s="18"/>
@@ -13772,7 +13775,7 @@
       <c r="A517" s="18"/>
       <c r="B517" s="51"/>
       <c r="C517" s="20" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D517" s="19"/>
       <c r="E517" s="18"/>
@@ -13801,7 +13804,7 @@
       <c r="A518" s="18"/>
       <c r="B518" s="51"/>
       <c r="C518" s="20" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D518" s="19"/>
       <c r="E518" s="18"/>
@@ -13830,7 +13833,7 @@
       <c r="A519" s="18"/>
       <c r="B519" s="51"/>
       <c r="C519" s="20" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D519" s="19"/>
       <c r="E519" s="18"/>
@@ -13859,7 +13862,7 @@
       <c r="A520" s="18"/>
       <c r="B520" s="51"/>
       <c r="C520" s="20" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D520" s="19"/>
       <c r="E520" s="18"/>
@@ -13888,7 +13891,7 @@
       <c r="A521" s="18"/>
       <c r="B521" s="51"/>
       <c r="C521" s="20" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D521" s="19"/>
       <c r="E521" s="18"/>
@@ -13917,7 +13920,7 @@
       <c r="A522" s="18"/>
       <c r="B522" s="51"/>
       <c r="C522" s="20" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D522" s="19"/>
       <c r="E522" s="18"/>
@@ -13946,7 +13949,7 @@
       <c r="A523" s="18"/>
       <c r="B523" s="51"/>
       <c r="C523" s="20" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D523" s="19"/>
       <c r="E523" s="18"/>
@@ -13975,7 +13978,7 @@
       <c r="A524" s="18"/>
       <c r="B524" s="51"/>
       <c r="C524" s="20" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D524" s="19"/>
       <c r="E524" s="18"/>
@@ -14004,7 +14007,7 @@
       <c r="A525" s="18"/>
       <c r="B525" s="51"/>
       <c r="C525" s="20" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D525" s="19"/>
       <c r="E525" s="18"/>
@@ -14033,7 +14036,7 @@
       <c r="A526" s="18"/>
       <c r="B526" s="51"/>
       <c r="C526" s="20" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D526" s="19"/>
       <c r="E526" s="18"/>
@@ -14062,7 +14065,7 @@
       <c r="A527" s="18"/>
       <c r="B527" s="51"/>
       <c r="C527" s="20" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D527" s="19"/>
       <c r="E527" s="18"/>
@@ -14091,7 +14094,7 @@
       <c r="A528" s="18"/>
       <c r="B528" s="51"/>
       <c r="C528" s="20" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D528" s="19"/>
       <c r="E528" s="18"/>
@@ -14120,7 +14123,7 @@
       <c r="A529" s="18"/>
       <c r="B529" s="51"/>
       <c r="C529" s="20" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D529" s="19"/>
       <c r="E529" s="18"/>
@@ -14149,7 +14152,7 @@
       <c r="A530" s="18"/>
       <c r="B530" s="51"/>
       <c r="C530" s="20" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D530" s="19"/>
       <c r="E530" s="18"/>
@@ -14178,7 +14181,7 @@
       <c r="A531" s="18"/>
       <c r="B531" s="51"/>
       <c r="C531" s="20" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D531" s="19"/>
       <c r="E531" s="18"/>
@@ -14207,7 +14210,7 @@
       <c r="A532" s="18"/>
       <c r="B532" s="51"/>
       <c r="C532" s="20" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D532" s="19"/>
       <c r="E532" s="18"/>
@@ -14236,7 +14239,7 @@
       <c r="A533" s="18"/>
       <c r="B533" s="51"/>
       <c r="C533" s="20" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D533" s="19"/>
       <c r="E533" s="18"/>
@@ -14265,7 +14268,7 @@
       <c r="A534" s="18"/>
       <c r="B534" s="51"/>
       <c r="C534" s="20" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D534" s="19"/>
       <c r="E534" s="18"/>
@@ -14294,7 +14297,7 @@
       <c r="A535" s="21"/>
       <c r="B535" s="53"/>
       <c r="C535" s="22" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D535" s="13"/>
       <c r="E535" s="18"/>
@@ -14324,13 +14327,13 @@
         <v>105.0</v>
       </c>
       <c r="B536" s="17" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C536" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D536" s="23" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E536" s="15" t="s">
         <v>9</v>
@@ -14360,7 +14363,7 @@
       <c r="A537" s="18"/>
       <c r="B537" s="18"/>
       <c r="C537" s="20" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D537" s="18"/>
       <c r="E537" s="18"/>
@@ -14389,7 +14392,7 @@
       <c r="A538" s="21"/>
       <c r="B538" s="21"/>
       <c r="C538" s="22" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D538" s="21"/>
       <c r="E538" s="21"/>
@@ -14419,7 +14422,7 @@
         <v>106.0</v>
       </c>
       <c r="B539" s="20" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C539" s="14" t="s">
         <v>19</v>
@@ -14514,16 +14517,16 @@
         <v>107.0</v>
       </c>
       <c r="B542" s="71" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C542" s="49" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D542" s="23" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E542" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F542" s="6"/>
       <c r="G542" s="6"/>
@@ -14577,7 +14580,7 @@
       <c r="A544" s="21"/>
       <c r="B544" s="51"/>
       <c r="C544" s="86" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D544" s="21"/>
       <c r="E544" s="19"/>
@@ -14608,10 +14611,10 @@
       </c>
       <c r="B545" s="51"/>
       <c r="C545" s="81" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D545" s="30" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E545" s="19"/>
       <c r="F545" s="6"/>
@@ -14639,7 +14642,7 @@
       <c r="A546" s="21"/>
       <c r="B546" s="53"/>
       <c r="C546" s="33" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D546" s="21"/>
       <c r="E546" s="13"/>
@@ -14669,13 +14672,13 @@
         <v>109.0</v>
       </c>
       <c r="B547" s="20" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C547" s="20" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D547" s="30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E547" s="12" t="s">
         <v>15</v>
@@ -14733,13 +14736,13 @@
         <v>110.0</v>
       </c>
       <c r="B549" s="49" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C549" s="17" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D549" s="16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E549" s="12" t="s">
         <v>9</v>
@@ -14856,7 +14859,7 @@
       <c r="A553" s="21"/>
       <c r="B553" s="53"/>
       <c r="C553" s="22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D553" s="13"/>
       <c r="E553" s="21"/>
@@ -14886,16 +14889,16 @@
         <v>111.0</v>
       </c>
       <c r="B554" s="20" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C554" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D554" s="30" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E554" s="12" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F554" s="6"/>
       <c r="G554" s="6"/>
@@ -14922,7 +14925,7 @@
       <c r="A555" s="18"/>
       <c r="B555" s="18"/>
       <c r="C555" s="14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D555" s="18"/>
       <c r="E555" s="18"/>
@@ -14951,7 +14954,7 @@
       <c r="A556" s="21"/>
       <c r="B556" s="21"/>
       <c r="C556" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D556" s="18"/>
       <c r="E556" s="18"/>
@@ -14981,7 +14984,7 @@
         <v>112.0</v>
       </c>
       <c r="B557" s="20" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C557" s="14" t="s">
         <v>19</v>
@@ -15013,7 +15016,7 @@
       <c r="A558" s="18"/>
       <c r="B558" s="18"/>
       <c r="C558" s="14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D558" s="18"/>
       <c r="E558" s="18"/>
@@ -15042,7 +15045,7 @@
       <c r="A559" s="21"/>
       <c r="B559" s="21"/>
       <c r="C559" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D559" s="18"/>
       <c r="E559" s="18"/>
@@ -15072,7 +15075,7 @@
         <v>113.0</v>
       </c>
       <c r="B560" s="20" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C560" s="14" t="s">
         <v>19</v>
@@ -15104,7 +15107,7 @@
       <c r="A561" s="18"/>
       <c r="B561" s="18"/>
       <c r="C561" s="14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D561" s="18"/>
       <c r="E561" s="18"/>
@@ -15133,7 +15136,7 @@
       <c r="A562" s="21"/>
       <c r="B562" s="21"/>
       <c r="C562" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D562" s="18"/>
       <c r="E562" s="18"/>
@@ -15163,7 +15166,7 @@
         <v>114.0</v>
       </c>
       <c r="B563" s="20" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C563" s="14" t="s">
         <v>19</v>
@@ -15195,7 +15198,7 @@
       <c r="A564" s="18"/>
       <c r="B564" s="18"/>
       <c r="C564" s="14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D564" s="18"/>
       <c r="E564" s="18"/>
@@ -15224,7 +15227,7 @@
       <c r="A565" s="21"/>
       <c r="B565" s="21"/>
       <c r="C565" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D565" s="18"/>
       <c r="E565" s="18"/>
@@ -15254,7 +15257,7 @@
         <v>115.0</v>
       </c>
       <c r="B566" s="20" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C566" s="14" t="s">
         <v>19</v>
@@ -15286,7 +15289,7 @@
       <c r="A567" s="18"/>
       <c r="B567" s="18"/>
       <c r="C567" s="14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D567" s="18"/>
       <c r="E567" s="18"/>
@@ -15315,7 +15318,7 @@
       <c r="A568" s="21"/>
       <c r="B568" s="21"/>
       <c r="C568" s="14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D568" s="21"/>
       <c r="E568" s="21"/>
@@ -15345,10 +15348,10 @@
         <v>116.0</v>
       </c>
       <c r="B569" s="20" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C569" s="24" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D569" s="30" t="s">
         <v>18</v>
@@ -15470,7 +15473,7 @@
       </c>
       <c r="B573" s="18"/>
       <c r="C573" s="14" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D573" s="18"/>
       <c r="E573" s="18"/>
@@ -15588,7 +15591,7 @@
       </c>
       <c r="B577" s="18"/>
       <c r="C577" s="14" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D577" s="18"/>
       <c r="E577" s="18"/>
@@ -15705,16 +15708,16 @@
         <v>119.0</v>
       </c>
       <c r="B581" s="20" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C581" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D581" s="30" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E581" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F581" s="6"/>
       <c r="G581" s="6"/>
@@ -15741,7 +15744,7 @@
       <c r="A582" s="18"/>
       <c r="B582" s="18"/>
       <c r="C582" s="14" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D582" s="18"/>
       <c r="E582" s="18"/>
@@ -15770,7 +15773,7 @@
       <c r="A583" s="18"/>
       <c r="B583" s="18"/>
       <c r="C583" s="14" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D583" s="18"/>
       <c r="E583" s="18"/>
@@ -15799,7 +15802,7 @@
       <c r="A584" s="18"/>
       <c r="B584" s="18"/>
       <c r="C584" s="14" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D584" s="18"/>
       <c r="E584" s="18"/>
@@ -15828,7 +15831,7 @@
       <c r="A585" s="18"/>
       <c r="B585" s="18"/>
       <c r="C585" s="14" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D585" s="18"/>
       <c r="E585" s="18"/>
@@ -15857,7 +15860,7 @@
       <c r="A586" s="18"/>
       <c r="B586" s="18"/>
       <c r="C586" s="14" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D586" s="18"/>
       <c r="E586" s="18"/>
@@ -15886,7 +15889,7 @@
       <c r="A587" s="18"/>
       <c r="B587" s="18"/>
       <c r="C587" s="14" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D587" s="18"/>
       <c r="E587" s="18"/>
@@ -15915,7 +15918,7 @@
       <c r="A588" s="18"/>
       <c r="B588" s="18"/>
       <c r="C588" s="14" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D588" s="18"/>
       <c r="E588" s="18"/>
@@ -15944,7 +15947,7 @@
       <c r="A589" s="18"/>
       <c r="B589" s="18"/>
       <c r="C589" s="14" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D589" s="18"/>
       <c r="E589" s="18"/>
@@ -15973,7 +15976,7 @@
       <c r="A590" s="18"/>
       <c r="B590" s="18"/>
       <c r="C590" s="14" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D590" s="18"/>
       <c r="E590" s="18"/>
@@ -16002,7 +16005,7 @@
       <c r="A591" s="18"/>
       <c r="B591" s="18"/>
       <c r="C591" s="14" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D591" s="18"/>
       <c r="E591" s="18"/>
@@ -16031,7 +16034,7 @@
       <c r="A592" s="18"/>
       <c r="B592" s="18"/>
       <c r="C592" s="14" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D592" s="18"/>
       <c r="E592" s="18"/>
@@ -16060,7 +16063,7 @@
       <c r="A593" s="18"/>
       <c r="B593" s="18"/>
       <c r="C593" s="14" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D593" s="18"/>
       <c r="E593" s="18"/>
@@ -16089,7 +16092,7 @@
       <c r="A594" s="18"/>
       <c r="B594" s="18"/>
       <c r="C594" s="20" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D594" s="18"/>
       <c r="E594" s="18"/>
@@ -16118,7 +16121,7 @@
       <c r="A595" s="21"/>
       <c r="B595" s="21"/>
       <c r="C595" s="14" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D595" s="21"/>
       <c r="E595" s="21"/>
@@ -16145,7 +16148,7 @@
     </row>
     <row r="596" ht="21.75" customHeight="1">
       <c r="A596" s="87" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
@@ -16177,13 +16180,13 @@
         <v>120.0</v>
       </c>
       <c r="B597" s="20" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C597" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D597" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E597" s="15" t="s">
         <v>9</v>
@@ -16271,7 +16274,7 @@
       <c r="A600" s="21"/>
       <c r="B600" s="21"/>
       <c r="C600" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D600" s="21"/>
       <c r="E600" s="21"/>
@@ -16301,16 +16304,16 @@
         <v>121.0</v>
       </c>
       <c r="B601" s="30" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C601" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D601" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E601" s="15" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F601" s="6"/>
       <c r="G601" s="6"/>
@@ -16337,7 +16340,7 @@
       <c r="A602" s="18"/>
       <c r="B602" s="18"/>
       <c r="C602" s="14" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D602" s="18"/>
       <c r="E602" s="18"/>
@@ -16366,7 +16369,7 @@
       <c r="A603" s="18"/>
       <c r="B603" s="18"/>
       <c r="C603" s="14" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D603" s="18"/>
       <c r="E603" s="18"/>
@@ -16395,7 +16398,7 @@
       <c r="A604" s="21"/>
       <c r="B604" s="21"/>
       <c r="C604" s="14" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D604" s="21"/>
       <c r="E604" s="18"/>
@@ -16425,13 +16428,13 @@
         <v>122.0</v>
       </c>
       <c r="B605" s="54" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C605" s="17" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D605" s="16" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E605" s="18"/>
       <c r="F605" s="6"/>
@@ -16459,7 +16462,7 @@
       <c r="A606" s="21"/>
       <c r="B606" s="37"/>
       <c r="C606" s="22" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D606" s="13"/>
       <c r="E606" s="21"/>
@@ -16489,13 +16492,13 @@
         <v>123.0</v>
       </c>
       <c r="B607" s="30" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C607" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D607" s="30" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E607" s="12" t="s">
         <v>9</v>
@@ -16525,7 +16528,7 @@
       <c r="A608" s="18"/>
       <c r="B608" s="18"/>
       <c r="C608" s="14" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D608" s="18"/>
       <c r="E608" s="18"/>
@@ -16554,7 +16557,7 @@
       <c r="A609" s="18"/>
       <c r="B609" s="18"/>
       <c r="C609" s="14" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D609" s="18"/>
       <c r="E609" s="18"/>
@@ -16583,7 +16586,7 @@
       <c r="A610" s="18"/>
       <c r="B610" s="18"/>
       <c r="C610" s="64" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D610" s="18"/>
       <c r="E610" s="18"/>
@@ -16612,7 +16615,7 @@
       <c r="A611" s="18"/>
       <c r="B611" s="18"/>
       <c r="C611" s="14" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D611" s="18"/>
       <c r="E611" s="18"/>
@@ -16641,7 +16644,7 @@
       <c r="A612" s="18"/>
       <c r="B612" s="18"/>
       <c r="C612" s="14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D612" s="18"/>
       <c r="E612" s="18"/>
@@ -16671,13 +16674,13 @@
         <v>124.0</v>
       </c>
       <c r="B613" s="17" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C613" s="24" t="s">
         <v>19</v>
       </c>
       <c r="D613" s="23" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E613" s="18"/>
       <c r="F613" s="6"/>
@@ -16705,7 +16708,7 @@
       <c r="A614" s="18"/>
       <c r="B614" s="18"/>
       <c r="C614" s="14" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D614" s="18"/>
       <c r="E614" s="18"/>
@@ -16734,7 +16737,7 @@
       <c r="A615" s="18"/>
       <c r="B615" s="18"/>
       <c r="C615" s="14" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D615" s="18"/>
       <c r="E615" s="18"/>
@@ -16763,7 +16766,7 @@
       <c r="A616" s="18"/>
       <c r="B616" s="18"/>
       <c r="C616" s="14" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D616" s="18"/>
       <c r="E616" s="18"/>
@@ -16792,7 +16795,7 @@
       <c r="A617" s="21"/>
       <c r="B617" s="21"/>
       <c r="C617" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D617" s="21"/>
       <c r="E617" s="21"/>
@@ -16822,16 +16825,16 @@
         <v>125.0</v>
       </c>
       <c r="B618" s="14" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C618" s="17" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D618" s="16" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E618" s="11" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F618" s="6"/>
       <c r="G618" s="6"/>
@@ -16858,7 +16861,7 @@
       <c r="A619" s="18"/>
       <c r="B619" s="19"/>
       <c r="C619" s="20" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D619" s="19"/>
       <c r="E619" s="19"/>
@@ -16887,7 +16890,7 @@
       <c r="A620" s="18"/>
       <c r="B620" s="19"/>
       <c r="C620" s="20" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D620" s="19"/>
       <c r="E620" s="19"/>
@@ -16916,7 +16919,7 @@
       <c r="A621" s="21"/>
       <c r="B621" s="13"/>
       <c r="C621" s="22" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D621" s="13"/>
       <c r="E621" s="13"/>
@@ -16946,13 +16949,13 @@
         <v>126.0</v>
       </c>
       <c r="B622" s="20" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C622" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D622" s="30" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E622" s="12" t="s">
         <v>9</v>
@@ -16982,7 +16985,7 @@
       <c r="A623" s="18"/>
       <c r="B623" s="18"/>
       <c r="C623" s="14" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D623" s="18"/>
       <c r="E623" s="18"/>
@@ -17011,7 +17014,7 @@
       <c r="A624" s="18"/>
       <c r="B624" s="18"/>
       <c r="C624" s="14" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D624" s="18"/>
       <c r="E624" s="18"/>
@@ -17040,7 +17043,7 @@
       <c r="A625" s="18"/>
       <c r="B625" s="18"/>
       <c r="C625" s="14" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D625" s="18"/>
       <c r="E625" s="18"/>
@@ -17069,7 +17072,7 @@
       <c r="A626" s="18"/>
       <c r="B626" s="18"/>
       <c r="C626" s="14" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D626" s="18"/>
       <c r="E626" s="18"/>
@@ -17098,7 +17101,7 @@
       <c r="A627" s="18"/>
       <c r="B627" s="18"/>
       <c r="C627" s="14" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D627" s="18"/>
       <c r="E627" s="18"/>
@@ -17127,7 +17130,7 @@
       <c r="A628" s="18"/>
       <c r="B628" s="18"/>
       <c r="C628" s="14" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D628" s="18"/>
       <c r="E628" s="18"/>
@@ -17156,7 +17159,7 @@
       <c r="A629" s="18"/>
       <c r="B629" s="18"/>
       <c r="C629" s="14" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D629" s="18"/>
       <c r="E629" s="18"/>
@@ -17185,7 +17188,7 @@
       <c r="A630" s="18"/>
       <c r="B630" s="18"/>
       <c r="C630" s="14" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D630" s="18"/>
       <c r="E630" s="18"/>
@@ -17214,7 +17217,7 @@
       <c r="A631" s="18"/>
       <c r="B631" s="18"/>
       <c r="C631" s="14" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D631" s="18"/>
       <c r="E631" s="18"/>
@@ -17243,7 +17246,7 @@
       <c r="A632" s="21"/>
       <c r="B632" s="21"/>
       <c r="C632" s="9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D632" s="21"/>
       <c r="E632" s="21"/>
@@ -17273,16 +17276,16 @@
         <v>127.0</v>
       </c>
       <c r="B633" s="9" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C633" s="14" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D633" s="47" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E633" s="35" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F633" s="6"/>
       <c r="G633" s="6"/>
@@ -17310,16 +17313,16 @@
         <v>128.0</v>
       </c>
       <c r="B634" s="71" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C634" s="17" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D634" s="16" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E634" s="11" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F634" s="6"/>
       <c r="G634" s="6"/>
@@ -17346,7 +17349,7 @@
       <c r="A635" s="18"/>
       <c r="B635" s="51"/>
       <c r="C635" s="20" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D635" s="19"/>
       <c r="E635" s="19"/>
@@ -17375,7 +17378,7 @@
       <c r="A636" s="21"/>
       <c r="B636" s="53"/>
       <c r="C636" s="20" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D636" s="19"/>
       <c r="E636" s="13"/>
@@ -17405,13 +17408,13 @@
         <v>129.0</v>
       </c>
       <c r="B637" s="54" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C637" s="17" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D637" s="25" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E637" s="12" t="s">
         <v>15</v>
@@ -17440,7 +17443,7 @@
     <row r="638">
       <c r="A638" s="18"/>
       <c r="C638" s="20" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D638" s="19"/>
       <c r="E638" s="18"/>
@@ -17469,7 +17472,7 @@
       <c r="A639" s="21"/>
       <c r="B639" s="37"/>
       <c r="C639" s="20" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D639" s="13"/>
       <c r="E639" s="18"/>
@@ -17499,13 +17502,13 @@
         <v>130.0</v>
       </c>
       <c r="B640" s="54" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C640" s="17" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D640" s="16" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E640" s="18"/>
       <c r="F640" s="6"/>
@@ -17532,7 +17535,7 @@
     <row r="641">
       <c r="A641" s="18"/>
       <c r="C641" s="20" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D641" s="19"/>
       <c r="E641" s="18"/>
@@ -17561,7 +17564,7 @@
       <c r="A642" s="21"/>
       <c r="B642" s="37"/>
       <c r="C642" s="32" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D642" s="19"/>
       <c r="E642" s="18"/>
@@ -17591,13 +17594,13 @@
         <v>131.0</v>
       </c>
       <c r="B643" s="54" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C643" s="17" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D643" s="25" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E643" s="18"/>
       <c r="F643" s="6"/>
@@ -17624,7 +17627,7 @@
     <row r="644">
       <c r="A644" s="18"/>
       <c r="C644" s="20" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D644" s="19"/>
       <c r="E644" s="18"/>
@@ -17653,7 +17656,7 @@
       <c r="A645" s="21"/>
       <c r="B645" s="37"/>
       <c r="C645" s="33" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D645" s="13"/>
       <c r="E645" s="21"/>
@@ -17683,16 +17686,16 @@
         <v>132.0</v>
       </c>
       <c r="B646" s="54" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C646" s="17" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D646" s="16" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E646" s="11" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F646" s="6"/>
       <c r="G646" s="6"/>
@@ -17718,7 +17721,7 @@
     <row r="647">
       <c r="A647" s="18"/>
       <c r="C647" s="32" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D647" s="19"/>
       <c r="E647" s="19"/>
@@ -17747,7 +17750,7 @@
       <c r="A648" s="21"/>
       <c r="B648" s="37"/>
       <c r="C648" s="33" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D648" s="19"/>
       <c r="E648" s="13"/>
@@ -17777,16 +17780,16 @@
         <v>133.0</v>
       </c>
       <c r="B649" s="17" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C649" s="24" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D649" s="23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E649" s="15" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F649" s="6"/>
       <c r="G649" s="6"/>
@@ -17871,7 +17874,7 @@
       <c r="A652" s="21"/>
       <c r="B652" s="21"/>
       <c r="C652" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D652" s="21"/>
       <c r="E652" s="21"/>
@@ -17901,16 +17904,16 @@
         <v>134.0</v>
       </c>
       <c r="B653" s="36" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C653" s="17" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D653" s="25" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E653" s="88" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F653" s="6"/>
       <c r="G653" s="6"/>
@@ -17936,7 +17939,7 @@
     <row r="654" ht="29.25" customHeight="1">
       <c r="A654" s="18"/>
       <c r="C654" s="20" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D654" s="19"/>
       <c r="E654" s="19"/>
@@ -17965,7 +17968,7 @@
       <c r="A655" s="21"/>
       <c r="B655" s="37"/>
       <c r="C655" s="33" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D655" s="13"/>
       <c r="E655" s="13"/>
